--- a/public_data/costs.xlsx
+++ b/public_data/costs.xlsx
@@ -21,7 +21,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,66 +50,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>pop_Magude</t>
-  </si>
-  <si>
-    <t>costs_E</t>
-  </si>
-  <si>
-    <t>costs_C</t>
-  </si>
-  <si>
-    <t>malaria_cases_E</t>
-  </si>
-  <si>
-    <t>malaria_inc_rate_E</t>
-  </si>
-  <si>
-    <t>malaria_cases_C</t>
-  </si>
-  <si>
-    <t>malaria_inc_rate_C</t>
   </si>
   <si>
     <t>%_non_severe</t>
   </si>
   <si>
-    <t>non_sev_malaria_cases_E</t>
-  </si>
-  <si>
-    <t>non_sev_malaria_cases_C</t>
-  </si>
-  <si>
     <t>%_severe</t>
-  </si>
-  <si>
-    <t>sev_malaria_cases_E</t>
-  </si>
-  <si>
-    <t>sev_malaria_cases_C</t>
   </si>
   <si>
     <t>%_hospitalization</t>
   </si>
   <si>
-    <t>hospitalizations_E</t>
-  </si>
-  <si>
-    <t>hospitalizations_C</t>
-  </si>
-  <si>
     <t>Case fatality rate</t>
-  </si>
-  <si>
-    <t>deaths_E</t>
-  </si>
-  <si>
-    <t>deaths_C</t>
   </si>
 </sst>
 </file>
@@ -182,13 +137,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -500,464 +452,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5546875" style="5"/>
-    <col min="5" max="5" width="10.88671875" style="5" customWidth="1"/>
-    <col min="6" max="12" width="10.77734375" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="5"/>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>2015</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="I2" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R2" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="B2" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2016</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="I3" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R3" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="B3" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2017</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="I4" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R4" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="B4" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>2018</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="I5" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R5" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="B5" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>2019</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="I6" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R6" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="B6" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>2020</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="I7" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R7" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="B7" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="I8" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R8" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="B8" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>2022</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="I9" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R9" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="B9" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>2023</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="I10" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R10" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="B10" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>2024</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="I11" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R11" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="B11" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>2025</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="I12" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R12" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="B12" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>2026</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="I13" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R13" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="B13" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>2027</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="I14" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R14" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="B14" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>2028</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="I15" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R15" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="B15" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>2029</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="I16" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R16" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="B16" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>2030</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="I17" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R17" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="B17" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>2031</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="I18" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R18" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="B18" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>2032</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="I19" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R19" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="B19" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>2033</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="I20" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R20" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="B20" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>2034</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="I21" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R21" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="B21" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>2035</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="I22" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="R22" s="8">
+      <c r="B22" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E22" s="7">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/public_data/costs.xlsx
+++ b/public_data/costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1091,9 +1091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1152,6 +1149,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,10 +1461,10 @@
   <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,79 +1477,79 @@
     <col min="6" max="6" width="12.21875" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="36" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" style="4" customWidth="1"/>
     <col min="12" max="12" width="13.21875" style="4" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="36" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" style="36" customWidth="1"/>
     <col min="17" max="19" width="13.21875" style="4" customWidth="1"/>
     <col min="20" max="20" width="16.109375" style="4" customWidth="1"/>
     <col min="21" max="21" width="8.88671875" style="8"/>
     <col min="22" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="29" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1581,22 +1581,22 @@
       <c r="I2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="36">
-        <v>1</v>
-      </c>
-      <c r="K2" s="36">
+      <c r="J2" s="35">
+        <v>1</v>
+      </c>
+      <c r="K2" s="35">
         <v>47600</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N2" s="36">
-        <v>1</v>
-      </c>
-      <c r="P2" s="37">
+      <c r="N2" s="35">
+        <v>1</v>
+      </c>
+      <c r="P2" s="36">
         <v>0.5</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1641,22 +1641,22 @@
       <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>3</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="35">
         <v>12984</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="35">
         <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="35">
         <v>3</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>0.8</v>
       </c>
       <c r="Q3" s="4" t="s">
@@ -1701,22 +1701,22 @@
       <c r="I4" s="16">
         <v>1</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>2</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>12984</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <v>2</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="36">
         <v>0.8</v>
       </c>
       <c r="Q4" s="4" t="s">
@@ -1761,22 +1761,22 @@
       <c r="I5" s="16">
         <v>1</v>
       </c>
-      <c r="J5" s="36">
-        <v>1</v>
-      </c>
-      <c r="K5" s="36">
+      <c r="J5" s="35">
+        <v>1</v>
+      </c>
+      <c r="K5" s="35">
         <v>52524</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="35">
         <v>13</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N5" s="36">
-        <v>1</v>
-      </c>
-      <c r="P5" s="37">
+      <c r="N5" s="35">
+        <v>1</v>
+      </c>
+      <c r="P5" s="36">
         <v>0.25</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -1819,22 +1819,22 @@
       <c r="I6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="36">
-        <v>1</v>
-      </c>
-      <c r="K6" s="36">
+      <c r="J6" s="35">
+        <v>1</v>
+      </c>
+      <c r="K6" s="35">
         <v>49966</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <v>13</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N6" s="36">
-        <v>1</v>
-      </c>
-      <c r="P6" s="37">
+      <c r="N6" s="35">
+        <v>1</v>
+      </c>
+      <c r="P6" s="36">
         <v>0.5</v>
       </c>
       <c r="Q6" s="4" t="s">
@@ -1879,13 +1879,13 @@
       <c r="I7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="36">
-        <v>1</v>
-      </c>
-      <c r="K7" s="36">
+      <c r="J7" s="35">
+        <v>1</v>
+      </c>
+      <c r="K7" s="35">
         <v>13770</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="35">
         <v>13</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1933,13 +1933,13 @@
       <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="36">
-        <v>1</v>
-      </c>
-      <c r="K8" s="36">
+      <c r="J8" s="35">
+        <v>1</v>
+      </c>
+      <c r="K8" s="35">
         <v>48406</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <v>13</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1987,22 +1987,22 @@
       <c r="I9" s="16">
         <v>1</v>
       </c>
-      <c r="J9" s="36">
-        <v>1</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="J9" s="35">
+        <v>1</v>
+      </c>
+      <c r="K9" s="35">
         <v>9411</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>13</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N9" s="36">
-        <v>1</v>
-      </c>
-      <c r="P9" s="37">
+      <c r="N9" s="35">
+        <v>1</v>
+      </c>
+      <c r="P9" s="36">
         <v>1</v>
       </c>
       <c r="Q9" s="4" t="s">
@@ -2045,13 +2045,13 @@
       <c r="I10" s="16">
         <v>0.2</v>
       </c>
-      <c r="J10" s="36">
-        <v>1</v>
-      </c>
-      <c r="K10" s="36">
+      <c r="J10" s="35">
+        <v>1</v>
+      </c>
+      <c r="K10" s="35">
         <v>50462</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <v>13</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2099,13 +2099,13 @@
       <c r="I11" s="16">
         <v>0.2</v>
       </c>
-      <c r="J11" s="36">
-        <v>1</v>
-      </c>
-      <c r="K11" s="36">
+      <c r="J11" s="35">
+        <v>1</v>
+      </c>
+      <c r="K11" s="35">
         <v>68712</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>13</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -2151,22 +2151,22 @@
       <c r="I12" s="16">
         <v>1</v>
       </c>
-      <c r="J12" s="36">
-        <v>1</v>
-      </c>
-      <c r="K12" s="36">
+      <c r="J12" s="35">
+        <v>1</v>
+      </c>
+      <c r="K12" s="35">
         <v>11794</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="35">
         <v>13</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N12" s="36">
-        <v>1</v>
-      </c>
-      <c r="P12" s="37">
+      <c r="N12" s="35">
+        <v>1</v>
+      </c>
+      <c r="P12" s="36">
         <v>0.8</v>
       </c>
       <c r="Q12" s="4" t="s">
@@ -2211,22 +2211,22 @@
       <c r="I13" s="16">
         <v>1</v>
       </c>
-      <c r="J13" s="36">
-        <v>1</v>
-      </c>
-      <c r="K13" s="36">
+      <c r="J13" s="35">
+        <v>1</v>
+      </c>
+      <c r="K13" s="35">
         <v>9411</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="35">
         <v>13</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N13" s="36">
-        <v>1</v>
-      </c>
-      <c r="P13" s="37">
+      <c r="N13" s="35">
+        <v>1</v>
+      </c>
+      <c r="P13" s="36">
         <v>0.8</v>
       </c>
       <c r="Q13" s="4" t="s">
@@ -2271,22 +2271,22 @@
       <c r="I14" s="16">
         <v>1</v>
       </c>
-      <c r="J14" s="36">
-        <v>1</v>
-      </c>
-      <c r="K14" s="36">
+      <c r="J14" s="35">
+        <v>1</v>
+      </c>
+      <c r="K14" s="35">
         <v>19349</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <v>13</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N14" s="36">
-        <v>1</v>
-      </c>
-      <c r="P14" s="37">
+      <c r="N14" s="35">
+        <v>1</v>
+      </c>
+      <c r="P14" s="36">
         <v>0.6</v>
       </c>
       <c r="Q14" s="4" t="s">
@@ -2331,13 +2331,13 @@
       <c r="I15" s="16">
         <v>1</v>
       </c>
-      <c r="J15" s="36">
-        <v>1</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="J15" s="35">
+        <v>1</v>
+      </c>
+      <c r="K15" s="35">
         <v>150000</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2385,22 +2385,22 @@
       <c r="I16" s="16">
         <v>1</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <v>0</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <v>0</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="35">
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="35">
         <v>2</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="35">
         <v>247500</v>
       </c>
       <c r="Q16" s="4" t="s">
@@ -2445,22 +2445,22 @@
       <c r="I17" s="16">
         <v>1</v>
       </c>
-      <c r="J17" s="36">
-        <v>1</v>
-      </c>
-      <c r="K17" s="36">
+      <c r="J17" s="35">
+        <v>1</v>
+      </c>
+      <c r="K17" s="35">
         <v>67938.876404494367</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N17" s="36">
-        <v>1</v>
-      </c>
-      <c r="P17" s="37">
+      <c r="N17" s="35">
+        <v>1</v>
+      </c>
+      <c r="P17" s="36">
         <v>0.8</v>
       </c>
       <c r="Q17" s="4" t="s">
@@ -2490,7 +2490,7 @@
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="41" t="s">
         <v>200</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -2505,13 +2505,13 @@
       <c r="I18" s="16">
         <v>1</v>
       </c>
-      <c r="J18" s="36">
-        <v>1</v>
-      </c>
-      <c r="K18" s="36">
+      <c r="J18" s="35">
+        <v>1</v>
+      </c>
+      <c r="K18" s="35">
         <v>19782.20224719101</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="35">
         <v>1</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -2544,7 +2544,7 @@
       <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
         <v>278</v>
       </c>
@@ -2557,13 +2557,13 @@
       <c r="I19" s="16">
         <v>1</v>
       </c>
-      <c r="J19" s="36">
-        <v>1</v>
-      </c>
-      <c r="K19" s="36">
+      <c r="J19" s="35">
+        <v>1</v>
+      </c>
+      <c r="K19" s="35">
         <v>16784.898876404492</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -2609,22 +2609,22 @@
       <c r="I20" s="16">
         <v>1</v>
       </c>
-      <c r="J20" s="36">
-        <v>1</v>
-      </c>
-      <c r="K20" s="36">
+      <c r="J20" s="35">
+        <v>1</v>
+      </c>
+      <c r="K20" s="35">
         <v>127085.6629213483</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N20" s="36">
-        <v>1</v>
-      </c>
-      <c r="P20" s="37">
+      <c r="N20" s="35">
+        <v>1</v>
+      </c>
+      <c r="P20" s="36">
         <v>0.6</v>
       </c>
       <c r="Q20" s="4" t="s">
@@ -2667,22 +2667,22 @@
       <c r="I21" s="16">
         <v>1</v>
       </c>
-      <c r="J21" s="36">
-        <v>1</v>
-      </c>
-      <c r="K21" s="36">
+      <c r="J21" s="35">
+        <v>1</v>
+      </c>
+      <c r="K21" s="35">
         <v>292736.62921348313</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="35">
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N21" s="36">
-        <v>1</v>
-      </c>
-      <c r="P21" s="37">
+      <c r="N21" s="35">
+        <v>1</v>
+      </c>
+      <c r="P21" s="36">
         <v>0.6</v>
       </c>
       <c r="Q21" s="4" t="s">
@@ -2727,22 +2727,22 @@
       <c r="I22" s="16">
         <v>1</v>
       </c>
-      <c r="J22" s="36">
-        <v>1</v>
-      </c>
-      <c r="K22" s="36">
+      <c r="J22" s="35">
+        <v>1</v>
+      </c>
+      <c r="K22" s="35">
         <v>88720.179775280878</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="35">
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N22" s="36">
-        <v>1</v>
-      </c>
-      <c r="P22" s="37">
+      <c r="N22" s="35">
+        <v>1</v>
+      </c>
+      <c r="P22" s="36">
         <v>0.6</v>
       </c>
       <c r="Q22" s="4" t="s">
@@ -2785,22 +2785,22 @@
       <c r="I23" s="16">
         <v>1</v>
       </c>
-      <c r="J23" s="36">
-        <v>1</v>
-      </c>
-      <c r="K23" s="36">
+      <c r="J23" s="35">
+        <v>1</v>
+      </c>
+      <c r="K23" s="35">
         <v>16784.898876404492</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="35">
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N23" s="36">
-        <v>1</v>
-      </c>
-      <c r="P23" s="37">
+      <c r="N23" s="35">
+        <v>1</v>
+      </c>
+      <c r="P23" s="36">
         <v>1</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -2845,22 +2845,22 @@
       <c r="I24" s="16">
         <v>1</v>
       </c>
-      <c r="J24" s="36">
-        <v>1</v>
-      </c>
-      <c r="K24" s="36">
+      <c r="J24" s="35">
+        <v>1</v>
+      </c>
+      <c r="K24" s="35">
         <v>346655.34498876403</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="35">
         <v>1</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N24" s="36">
-        <v>1</v>
-      </c>
-      <c r="P24" s="37">
+      <c r="N24" s="35">
+        <v>1</v>
+      </c>
+      <c r="P24" s="36">
         <v>0.6</v>
       </c>
       <c r="Q24" s="4" t="s">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>0</v>
       </c>
@@ -2903,22 +2903,22 @@
       <c r="I25" s="16">
         <v>1</v>
       </c>
-      <c r="J25" s="36">
-        <v>1</v>
-      </c>
-      <c r="K25" s="36">
+      <c r="J25" s="35">
+        <v>1</v>
+      </c>
+      <c r="K25" s="35">
         <v>207318.88853932582</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="35">
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N25" s="36">
-        <v>1</v>
-      </c>
-      <c r="P25" s="37">
+      <c r="N25" s="35">
+        <v>1</v>
+      </c>
+      <c r="P25" s="36">
         <v>0.6</v>
       </c>
       <c r="Q25" s="4" t="s">
@@ -2963,22 +2963,22 @@
       <c r="I26" s="16">
         <v>1</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="35">
         <v>2</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="35">
         <v>5140</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="35">
         <v>1</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="35">
         <v>2</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="36">
         <v>1</v>
       </c>
       <c r="Q26" s="4" t="s">
@@ -3023,22 +3023,22 @@
       <c r="I27" s="16">
         <v>1</v>
       </c>
-      <c r="J27" s="36">
-        <v>1</v>
-      </c>
-      <c r="K27" s="36">
+      <c r="J27" s="35">
+        <v>1</v>
+      </c>
+      <c r="K27" s="35">
         <v>32398.20224719101</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="35">
         <v>1</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N27" s="36">
-        <v>1</v>
-      </c>
-      <c r="P27" s="37">
+      <c r="N27" s="35">
+        <v>1</v>
+      </c>
+      <c r="P27" s="36">
         <v>1</v>
       </c>
       <c r="Q27" s="4" t="s">
@@ -3083,13 +3083,13 @@
       <c r="I28" s="16">
         <v>1</v>
       </c>
-      <c r="J28" s="36">
-        <v>1</v>
-      </c>
-      <c r="K28" s="36">
-        <v>1</v>
-      </c>
-      <c r="L28" s="36">
+      <c r="J28" s="35">
+        <v>1</v>
+      </c>
+      <c r="K28" s="35">
+        <v>1</v>
+      </c>
+      <c r="L28" s="35">
         <v>1</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -3137,13 +3137,13 @@
       <c r="I29" s="16">
         <v>1</v>
       </c>
-      <c r="J29" s="36">
-        <v>1</v>
-      </c>
-      <c r="K29" s="36">
+      <c r="J29" s="35">
+        <v>1</v>
+      </c>
+      <c r="K29" s="35">
         <v>59790.207640449436</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="35">
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3191,22 +3191,22 @@
       <c r="I30" s="16">
         <v>1</v>
       </c>
-      <c r="J30" s="36">
-        <v>1</v>
-      </c>
-      <c r="K30" s="36">
+      <c r="J30" s="35">
+        <v>1</v>
+      </c>
+      <c r="K30" s="35">
         <v>14943.8202247191</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="35">
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N30" s="36">
-        <v>1</v>
-      </c>
-      <c r="P30" s="37">
+      <c r="N30" s="35">
+        <v>1</v>
+      </c>
+      <c r="P30" s="36">
         <v>0.6</v>
       </c>
       <c r="Q30" s="4" t="s">
@@ -3251,22 +3251,22 @@
       <c r="I31" s="16">
         <v>1</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="35">
         <v>2</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="35">
         <v>2365</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="35">
         <v>1</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="35">
         <v>2</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="36">
         <v>1</v>
       </c>
       <c r="Q31" s="4" t="s">
@@ -3293,7 +3293,7 @@
       <c r="C32" s="11">
         <v>2015</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -3311,22 +3311,22 @@
       <c r="I32" s="16">
         <v>1</v>
       </c>
-      <c r="J32" s="36">
-        <v>1</v>
-      </c>
-      <c r="K32" s="36">
+      <c r="J32" s="35">
+        <v>1</v>
+      </c>
+      <c r="K32" s="35">
         <v>14942.966292134832</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="35">
         <v>1</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N32" s="36">
-        <v>1</v>
-      </c>
-      <c r="P32" s="37">
+      <c r="N32" s="35">
+        <v>1</v>
+      </c>
+      <c r="P32" s="36">
         <v>1</v>
       </c>
       <c r="Q32" s="4" t="s">
@@ -3353,7 +3353,7 @@
       <c r="C33" s="11">
         <v>2015</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -3371,22 +3371,22 @@
       <c r="I33" s="16">
         <v>1</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="35">
         <v>4</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <v>1246</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="35">
         <v>1</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="35">
         <v>4</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="36">
         <v>1</v>
       </c>
       <c r="Q33" s="4" t="s">
@@ -3413,10 +3413,10 @@
       <c r="C34" s="11">
         <v>2015</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>208</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -3431,22 +3431,22 @@
       <c r="I34" s="16">
         <v>1</v>
       </c>
-      <c r="J34" s="36">
-        <v>1</v>
-      </c>
-      <c r="K34" s="36">
+      <c r="J34" s="35">
+        <v>1</v>
+      </c>
+      <c r="K34" s="35">
         <v>45600</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="35">
         <v>1</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N34" s="36">
-        <v>1</v>
-      </c>
-      <c r="P34" s="37">
+      <c r="N34" s="35">
+        <v>1</v>
+      </c>
+      <c r="P34" s="36">
         <v>0.5</v>
       </c>
       <c r="Q34" s="4" t="s">
@@ -3473,10 +3473,10 @@
       <c r="C35" s="11">
         <v>2015</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>209</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -3491,22 +3491,22 @@
       <c r="I35" s="16">
         <v>1</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="35">
         <v>3</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="35">
         <v>1900</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <v>1</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="35">
         <v>3</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="36">
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="s">
@@ -3533,10 +3533,10 @@
       <c r="C36" s="11">
         <v>2015</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>210</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3551,22 +3551,22 @@
       <c r="I36" s="16">
         <v>1</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="35">
         <v>8</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="35">
         <v>1254</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="35">
         <v>1</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="35">
         <v>8</v>
       </c>
-      <c r="P36" s="37">
+      <c r="P36" s="36">
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
@@ -3593,10 +3593,10 @@
       <c r="C37" s="11">
         <v>2015</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>211</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3605,28 +3605,28 @@
       <c r="G37" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="24">
         <v>1</v>
       </c>
       <c r="I37" s="16">
         <v>1</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="35">
         <v>10</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="35">
         <v>190</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="35">
         <v>1</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="35">
         <v>10</v>
       </c>
-      <c r="P37" s="37">
+      <c r="P37" s="36">
         <v>1</v>
       </c>
       <c r="Q37" s="4" t="s">
@@ -3653,10 +3653,10 @@
       <c r="C38" s="11">
         <v>2015</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>212</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3665,28 +3665,28 @@
       <c r="G38" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="24">
         <v>1</v>
       </c>
       <c r="I38" s="16">
         <v>1</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="35">
         <v>40</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="35">
         <v>760</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="35">
         <v>1</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="35">
         <v>40</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="36">
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="s">
@@ -3713,10 +3713,10 @@
       <c r="C39" s="11">
         <v>2015</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>213</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3725,28 +3725,28 @@
       <c r="G39" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <v>1</v>
       </c>
       <c r="I39" s="16">
         <v>1</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="35">
         <v>10</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="35">
         <v>570</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="35">
         <v>1</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="35">
         <v>10</v>
       </c>
-      <c r="P39" s="37">
+      <c r="P39" s="36">
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="s">
@@ -3773,10 +3773,10 @@
       <c r="C40" s="11">
         <v>2015</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>214</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -3785,19 +3785,19 @@
       <c r="G40" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="24">
         <v>1</v>
       </c>
       <c r="I40" s="16">
         <v>1</v>
       </c>
-      <c r="J40" s="36">
-        <v>1</v>
-      </c>
-      <c r="K40" s="36">
+      <c r="J40" s="35">
+        <v>1</v>
+      </c>
+      <c r="K40" s="35">
         <v>760</v>
       </c>
-      <c r="L40" s="36">
+      <c r="L40" s="35">
         <v>1</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -3845,22 +3845,22 @@
       <c r="I41" s="16">
         <v>1</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="35">
         <v>10</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="35">
         <v>5738</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="35">
         <v>1</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="35">
         <v>10</v>
       </c>
-      <c r="P41" s="37">
+      <c r="P41" s="36">
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="s">
@@ -3905,22 +3905,22 @@
       <c r="I42" s="16">
         <v>1</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="35">
         <v>20</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="35">
         <v>2204</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="35">
         <v>1</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42" s="35">
         <v>20</v>
       </c>
-      <c r="P42" s="37">
+      <c r="P42" s="36">
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="s">
@@ -3965,22 +3965,22 @@
       <c r="I43" s="16">
         <v>1</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="35">
         <v>5</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="35">
         <v>9348</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="35">
         <v>1</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="35">
         <v>5</v>
       </c>
-      <c r="P43" s="37">
+      <c r="P43" s="36">
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="s">
@@ -4025,13 +4025,13 @@
       <c r="I44" s="16">
         <v>1</v>
       </c>
-      <c r="J44" s="36">
-        <v>1</v>
-      </c>
-      <c r="K44" s="36">
+      <c r="J44" s="35">
+        <v>1</v>
+      </c>
+      <c r="K44" s="35">
         <v>85796.4</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="35">
         <v>1</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -4061,7 +4061,7 @@
       <c r="C45" s="11">
         <v>2015</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E45" s="11"/>
@@ -4077,13 +4077,13 @@
       <c r="I45" s="16">
         <v>1</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="35">
         <v>4</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="35">
         <v>16229.148876404492</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="35">
         <v>1</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -4129,13 +4129,13 @@
       <c r="I46" s="16">
         <v>1</v>
       </c>
-      <c r="J46" s="36">
-        <v>1</v>
-      </c>
-      <c r="K46" s="36">
+      <c r="J46" s="35">
+        <v>1</v>
+      </c>
+      <c r="K46" s="35">
         <v>227675.16404494381</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="35">
         <v>1</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -4165,7 +4165,7 @@
       <c r="C47" s="11">
         <v>2015</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4183,22 +4183,22 @@
       <c r="I47" s="16">
         <v>1</v>
       </c>
-      <c r="J47" s="36">
-        <v>1</v>
-      </c>
-      <c r="K47" s="36">
+      <c r="J47" s="35">
+        <v>1</v>
+      </c>
+      <c r="K47" s="35">
         <v>47500</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="35">
         <v>1</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="36">
-        <v>1</v>
-      </c>
-      <c r="P47" s="37">
+      <c r="N47" s="35">
+        <v>1</v>
+      </c>
+      <c r="P47" s="36">
         <v>1</v>
       </c>
       <c r="Q47" s="4" t="s">
@@ -4243,22 +4243,22 @@
       <c r="I48" s="16">
         <v>1</v>
       </c>
-      <c r="J48" s="36">
-        <v>1</v>
-      </c>
-      <c r="K48" s="36">
+      <c r="J48" s="35">
+        <v>1</v>
+      </c>
+      <c r="K48" s="35">
         <v>9500</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="35">
         <v>1</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N48" s="36">
-        <v>1</v>
-      </c>
-      <c r="P48" s="37">
+      <c r="N48" s="35">
+        <v>1</v>
+      </c>
+      <c r="P48" s="36">
         <v>1</v>
       </c>
       <c r="Q48" s="4" t="s">
@@ -4303,22 +4303,22 @@
       <c r="I49" s="16">
         <v>1</v>
       </c>
-      <c r="J49" s="36">
-        <v>1</v>
-      </c>
-      <c r="K49" s="36">
+      <c r="J49" s="35">
+        <v>1</v>
+      </c>
+      <c r="K49" s="35">
         <v>47500</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="35">
         <v>1</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N49" s="36">
-        <v>1</v>
-      </c>
-      <c r="P49" s="37">
+      <c r="N49" s="35">
+        <v>1</v>
+      </c>
+      <c r="P49" s="36">
         <v>1</v>
       </c>
       <c r="Q49" s="4" t="s">
@@ -4363,22 +4363,22 @@
       <c r="I50" s="16">
         <v>1</v>
       </c>
-      <c r="J50" s="36">
-        <v>1</v>
-      </c>
-      <c r="K50" s="36">
+      <c r="J50" s="35">
+        <v>1</v>
+      </c>
+      <c r="K50" s="35">
         <v>47500</v>
       </c>
-      <c r="L50" s="36">
+      <c r="L50" s="35">
         <v>1</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N50" s="36">
-        <v>1</v>
-      </c>
-      <c r="P50" s="37">
+      <c r="N50" s="35">
+        <v>1</v>
+      </c>
+      <c r="P50" s="36">
         <v>1</v>
       </c>
       <c r="Q50" s="4" t="s">
@@ -4423,22 +4423,22 @@
       <c r="I51" s="16">
         <v>1</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="35">
         <v>2</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="35">
         <v>11500</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="35">
         <v>1</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N51" s="36">
+      <c r="N51" s="35">
         <v>2</v>
       </c>
-      <c r="P51" s="37">
+      <c r="P51" s="36">
         <v>1</v>
       </c>
       <c r="Q51" s="4" t="s">
@@ -4483,22 +4483,22 @@
       <c r="I52" s="16">
         <v>1</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="35">
         <v>2</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="35">
         <v>11500</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="35">
         <v>1</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N52" s="36">
+      <c r="N52" s="35">
         <v>2</v>
       </c>
-      <c r="P52" s="37">
+      <c r="P52" s="36">
         <v>1</v>
       </c>
       <c r="Q52" s="4" t="s">
@@ -4525,7 +4525,7 @@
       <c r="C53" s="11">
         <v>2015</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="11" t="s">
@@ -4543,13 +4543,13 @@
       <c r="I53" s="16">
         <v>1</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="35">
         <v>0</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="35">
         <v>15200</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="35">
         <v>1</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -4579,7 +4579,7 @@
       <c r="C54" s="11">
         <v>2015</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E54" s="11" t="s">
@@ -4597,13 +4597,13 @@
       <c r="I54" s="16">
         <v>1</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="35">
         <v>0</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="35">
         <v>15200</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="35">
         <v>1</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -4633,7 +4633,7 @@
       <c r="C55" s="11">
         <v>2015</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E55" s="11" t="s">
@@ -4651,13 +4651,13 @@
       <c r="I55" s="16">
         <v>1</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="35">
         <v>0</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="35">
         <v>15200</v>
       </c>
-      <c r="L55" s="36">
+      <c r="L55" s="35">
         <v>1</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -4687,7 +4687,7 @@
       <c r="C56" s="11">
         <v>2015</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E56" s="11" t="s">
@@ -4705,13 +4705,13 @@
       <c r="I56" s="16">
         <v>1</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="35">
         <v>0</v>
       </c>
-      <c r="K56" s="36">
+      <c r="K56" s="35">
         <v>30400</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L56" s="35">
         <v>1</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -4741,7 +4741,7 @@
       <c r="C57" s="11">
         <v>2015</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E57" s="11" t="s">
@@ -4759,22 +4759,22 @@
       <c r="I57" s="16">
         <v>1</v>
       </c>
-      <c r="J57" s="36">
+      <c r="J57" s="35">
         <v>1632</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="35">
         <v>18</v>
       </c>
-      <c r="L57" s="36">
+      <c r="L57" s="35">
         <v>11</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N57" s="36">
+      <c r="N57" s="35">
         <v>1632</v>
       </c>
-      <c r="P57" s="37">
+      <c r="P57" s="36">
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="s">
@@ -4801,7 +4801,7 @@
       <c r="C58" s="11">
         <v>2015</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E58" s="11" t="s">
@@ -4819,22 +4819,22 @@
       <c r="I58" s="16">
         <v>1</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="35">
         <v>50</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="35">
         <v>18</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="35">
         <v>11</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N58" s="36">
+      <c r="N58" s="35">
         <v>50</v>
       </c>
-      <c r="P58" s="37">
+      <c r="P58" s="36">
         <v>1</v>
       </c>
       <c r="Q58" s="4" t="s">
@@ -4861,7 +4861,7 @@
       <c r="C59" s="11">
         <v>2015</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E59" s="11" t="s">
@@ -4879,22 +4879,22 @@
       <c r="I59" s="16">
         <v>1</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="35">
         <v>400</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K59" s="35">
         <v>18</v>
       </c>
-      <c r="L59" s="36">
+      <c r="L59" s="35">
         <v>11</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N59" s="36">
+      <c r="N59" s="35">
         <v>400</v>
       </c>
-      <c r="P59" s="37">
+      <c r="P59" s="36">
         <v>1</v>
       </c>
       <c r="Q59" s="4" t="s">
@@ -4921,7 +4921,7 @@
       <c r="C60" s="11">
         <v>2015</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -4939,22 +4939,22 @@
       <c r="I60" s="16">
         <v>1</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="35">
         <v>342</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="35">
         <v>18</v>
       </c>
-      <c r="L60" s="36">
+      <c r="L60" s="35">
         <v>11</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N60" s="36">
+      <c r="N60" s="35">
         <v>342</v>
       </c>
-      <c r="P60" s="37">
+      <c r="P60" s="36">
         <v>1</v>
       </c>
       <c r="Q60" s="4" t="s">
@@ -4981,7 +4981,7 @@
       <c r="C61" s="11">
         <v>2015</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -4999,22 +4999,22 @@
       <c r="I61" s="16">
         <v>1</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="35">
         <v>504</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="35">
         <v>18</v>
       </c>
-      <c r="L61" s="36">
+      <c r="L61" s="35">
         <v>11</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N61" s="36">
+      <c r="N61" s="35">
         <v>504</v>
       </c>
-      <c r="P61" s="37">
+      <c r="P61" s="36">
         <v>1</v>
       </c>
       <c r="Q61" s="4" t="s">
@@ -5041,7 +5041,7 @@
       <c r="C62" s="11">
         <v>2015</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="27" t="s">
         <v>76</v>
       </c>
       <c r="E62" s="11" t="s">
@@ -5059,22 +5059,22 @@
       <c r="I62" s="16">
         <v>1</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="35">
         <v>270</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="35">
         <v>18</v>
       </c>
-      <c r="L62" s="36">
+      <c r="L62" s="35">
         <v>11</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N62" s="36">
+      <c r="N62" s="35">
         <v>270</v>
       </c>
-      <c r="P62" s="37">
+      <c r="P62" s="36">
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
@@ -5101,7 +5101,7 @@
       <c r="C63" s="11">
         <v>2015</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="27" t="s">
         <v>77</v>
       </c>
       <c r="E63" s="11" t="s">
@@ -5119,22 +5119,22 @@
       <c r="I63" s="16">
         <v>1</v>
       </c>
-      <c r="J63" s="36">
+      <c r="J63" s="35">
         <v>252</v>
       </c>
-      <c r="K63" s="36">
+      <c r="K63" s="35">
         <v>18</v>
       </c>
-      <c r="L63" s="36">
+      <c r="L63" s="35">
         <v>11</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N63" s="36">
+      <c r="N63" s="35">
         <v>252</v>
       </c>
-      <c r="P63" s="37">
+      <c r="P63" s="36">
         <v>1</v>
       </c>
       <c r="Q63" s="4" t="s">
@@ -5161,7 +5161,7 @@
       <c r="C64" s="11">
         <v>2015</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="11"/>
@@ -5177,22 +5177,22 @@
       <c r="I64" s="16">
         <v>1</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="35">
         <v>3</v>
       </c>
-      <c r="K64" s="36">
+      <c r="K64" s="35">
         <v>10247.191011235956</v>
       </c>
-      <c r="L64" s="36">
+      <c r="L64" s="35">
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N64" s="33">
+      <c r="N64" s="32">
         <v>3</v>
       </c>
-      <c r="P64" s="37">
+      <c r="P64" s="36">
         <v>1</v>
       </c>
       <c r="Q64" s="4" t="s">
@@ -5219,7 +5219,7 @@
       <c r="C65" s="11">
         <v>2015</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E65" s="11"/>
@@ -5235,22 +5235,22 @@
       <c r="I65" s="16">
         <v>1</v>
       </c>
-      <c r="J65" s="36">
-        <v>1</v>
-      </c>
-      <c r="K65" s="36">
+      <c r="J65" s="35">
+        <v>1</v>
+      </c>
+      <c r="K65" s="35">
         <v>3842.696629213483</v>
       </c>
-      <c r="L65" s="36">
+      <c r="L65" s="35">
         <v>1</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N65" s="33">
-        <v>1</v>
-      </c>
-      <c r="P65" s="37">
+      <c r="N65" s="32">
+        <v>1</v>
+      </c>
+      <c r="P65" s="36">
         <v>1</v>
       </c>
       <c r="Q65" s="4" t="s">
@@ -5277,7 +5277,7 @@
       <c r="C66" s="11">
         <v>2015</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="28" t="s">
         <v>80</v>
       </c>
       <c r="E66" s="11" t="s">
@@ -5289,25 +5289,25 @@
       <c r="G66" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H66" s="24">
         <v>5</v>
       </c>
       <c r="I66" s="16">
         <v>1</v>
       </c>
-      <c r="J66" s="36">
+      <c r="J66" s="35">
         <v>0</v>
       </c>
-      <c r="K66" s="36">
+      <c r="K66" s="35">
         <v>1366.2921348314608</v>
       </c>
-      <c r="L66" s="36">
+      <c r="L66" s="35">
         <v>1</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N66" s="33"/>
+      <c r="N66" s="32"/>
       <c r="Q66" s="4" t="s">
         <v>180</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="C67" s="11">
         <v>2015</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>81</v>
       </c>
       <c r="E67" s="11" t="s">
@@ -5350,19 +5350,19 @@
       <c r="I67" s="16">
         <v>1</v>
       </c>
-      <c r="J67" s="36">
+      <c r="J67" s="35">
         <v>0</v>
       </c>
-      <c r="K67" s="36">
+      <c r="K67" s="35">
         <v>30400</v>
       </c>
-      <c r="L67" s="36">
+      <c r="L67" s="35">
         <v>1</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N67" s="33"/>
+      <c r="N67" s="32"/>
       <c r="Q67" s="4" t="s">
         <v>180</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="C68" s="11">
         <v>2015</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="11" t="s">
@@ -5405,19 +5405,19 @@
       <c r="I68" s="16">
         <v>1</v>
       </c>
-      <c r="J68" s="36">
+      <c r="J68" s="35">
         <v>0</v>
       </c>
-      <c r="K68" s="36">
+      <c r="K68" s="35">
         <v>7600</v>
       </c>
-      <c r="L68" s="36">
+      <c r="L68" s="35">
         <v>1</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N68" s="33"/>
+      <c r="N68" s="32"/>
       <c r="Q68" s="4" t="s">
         <v>180</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="C69" s="11">
         <v>2015</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="11" t="s">
@@ -5460,19 +5460,19 @@
       <c r="I69" s="16">
         <v>1</v>
       </c>
-      <c r="J69" s="36">
+      <c r="J69" s="35">
         <v>0</v>
       </c>
-      <c r="K69" s="36">
+      <c r="K69" s="35">
         <v>4560</v>
       </c>
-      <c r="L69" s="36">
+      <c r="L69" s="35">
         <v>1</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N69" s="33"/>
+      <c r="N69" s="32"/>
       <c r="Q69" s="4" t="s">
         <v>180</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="C70" s="11">
         <v>2015</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="11" t="s">
@@ -5515,19 +5515,19 @@
       <c r="I70" s="16">
         <v>1</v>
       </c>
-      <c r="J70" s="36">
+      <c r="J70" s="35">
         <v>0</v>
       </c>
-      <c r="K70" s="36">
+      <c r="K70" s="35">
         <v>1280.8988764044946</v>
       </c>
-      <c r="L70" s="36">
+      <c r="L70" s="35">
         <v>12</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N70" s="33"/>
+      <c r="N70" s="32"/>
       <c r="Q70" s="4" t="s">
         <v>180</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="C71" s="11">
         <v>2015</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E71" s="11" t="s">
@@ -5570,19 +5570,19 @@
       <c r="I71" s="16">
         <v>1</v>
       </c>
-      <c r="J71" s="36">
+      <c r="J71" s="35">
         <v>0</v>
       </c>
-      <c r="K71" s="36">
+      <c r="K71" s="35">
         <v>426.96629213483152</v>
       </c>
-      <c r="L71" s="36">
+      <c r="L71" s="35">
         <v>12</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N71" s="33"/>
+      <c r="N71" s="32"/>
       <c r="Q71" s="4" t="s">
         <v>180</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="C72" s="11">
         <v>2015</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E72" s="11" t="s">
@@ -5625,19 +5625,19 @@
       <c r="I72" s="16">
         <v>1</v>
       </c>
-      <c r="J72" s="36">
+      <c r="J72" s="35">
         <v>0</v>
       </c>
-      <c r="K72" s="36">
+      <c r="K72" s="35">
         <v>2561.7977528089891</v>
       </c>
-      <c r="L72" s="36">
+      <c r="L72" s="35">
         <v>12</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N72" s="33"/>
+      <c r="N72" s="32"/>
       <c r="Q72" s="4" t="s">
         <v>180</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="C73" s="11">
         <v>2015</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E73" s="11" t="s">
@@ -5680,19 +5680,19 @@
       <c r="I73" s="16">
         <v>1</v>
       </c>
-      <c r="J73" s="36">
+      <c r="J73" s="35">
         <v>0</v>
       </c>
-      <c r="K73" s="36">
+      <c r="K73" s="35">
         <v>711.61048689138579</v>
       </c>
-      <c r="L73" s="36">
+      <c r="L73" s="35">
         <v>12</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N73" s="33"/>
+      <c r="N73" s="32"/>
       <c r="Q73" s="4" t="s">
         <v>180</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="C74" s="11">
         <v>2015</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="11">
@@ -5735,19 +5735,19 @@
       <c r="I74" s="16">
         <v>1</v>
       </c>
-      <c r="J74" s="36">
+      <c r="J74" s="35">
         <v>2</v>
       </c>
-      <c r="K74" s="36">
+      <c r="K74" s="35">
         <v>70463</v>
       </c>
-      <c r="L74" s="36">
+      <c r="L74" s="35">
         <v>6</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N74" s="34"/>
+      <c r="N74" s="33"/>
       <c r="Q74" s="4" t="s">
         <v>180</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="C75" s="11">
         <v>2015</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E75" s="11">
@@ -5790,22 +5790,22 @@
       <c r="I75" s="16">
         <v>1</v>
       </c>
-      <c r="J75" s="36">
+      <c r="J75" s="35">
         <v>2</v>
       </c>
-      <c r="K75" s="36">
+      <c r="K75" s="35">
         <v>63699</v>
       </c>
-      <c r="L75" s="36">
+      <c r="L75" s="35">
         <v>13</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N75" s="34">
-        <v>1</v>
-      </c>
-      <c r="P75" s="37">
+      <c r="N75" s="33">
+        <v>1</v>
+      </c>
+      <c r="P75" s="36">
         <v>0.6</v>
       </c>
       <c r="Q75" s="4" t="s">
@@ -5832,7 +5832,7 @@
       <c r="C76" s="11">
         <v>2015</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E76" s="11">
@@ -5850,22 +5850,22 @@
       <c r="I76" s="16">
         <v>1</v>
       </c>
-      <c r="J76" s="36">
+      <c r="J76" s="35">
         <v>400</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K76" s="35">
         <v>10974</v>
       </c>
-      <c r="L76" s="36">
+      <c r="L76" s="35">
         <v>4</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N76" s="34">
+      <c r="N76" s="33">
         <v>400</v>
       </c>
-      <c r="P76" s="37">
+      <c r="P76" s="36">
         <v>0.8</v>
       </c>
       <c r="Q76" s="4" t="s">
@@ -5892,7 +5892,7 @@
       <c r="C77" s="11">
         <v>2015</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="11">
@@ -5910,22 +5910,22 @@
       <c r="I77" s="16">
         <v>1</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J77" s="35">
         <v>20</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K77" s="35">
         <v>14888</v>
       </c>
-      <c r="L77" s="36">
+      <c r="L77" s="35">
         <v>4</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N77" s="35">
+      <c r="N77" s="34">
         <v>20</v>
       </c>
-      <c r="P77" s="37">
+      <c r="P77" s="36">
         <v>0.8</v>
       </c>
       <c r="Q77" s="4" t="s">
@@ -5952,7 +5952,7 @@
       <c r="C78" s="11">
         <v>2015</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="28" t="s">
         <v>91</v>
       </c>
       <c r="E78" s="11">
@@ -5970,19 +5970,19 @@
       <c r="I78" s="16">
         <v>1</v>
       </c>
-      <c r="J78" s="36">
+      <c r="J78" s="35">
         <v>2</v>
       </c>
-      <c r="K78" s="36">
+      <c r="K78" s="35">
         <v>49966</v>
       </c>
-      <c r="L78" s="36">
+      <c r="L78" s="35">
         <v>4</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N78" s="34"/>
+      <c r="N78" s="33"/>
       <c r="Q78" s="4" t="s">
         <v>180</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="C79" s="11">
         <v>2015</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E79" s="11">
@@ -6025,22 +6025,22 @@
       <c r="I79" s="16">
         <v>1</v>
       </c>
-      <c r="J79" s="36">
+      <c r="J79" s="35">
         <v>2</v>
       </c>
-      <c r="K79" s="36">
+      <c r="K79" s="35">
         <v>63699</v>
       </c>
-      <c r="L79" s="36">
+      <c r="L79" s="35">
         <v>6</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N79" s="34">
+      <c r="N79" s="33">
         <v>2</v>
       </c>
-      <c r="P79" s="37">
+      <c r="P79" s="36">
         <v>0.6</v>
       </c>
       <c r="Q79" s="4" t="s">
@@ -6067,7 +6067,7 @@
       <c r="C80" s="11">
         <v>2015</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="28" t="s">
         <v>93</v>
       </c>
       <c r="E80" s="11">
@@ -6085,19 +6085,19 @@
       <c r="I80" s="16">
         <v>1</v>
       </c>
-      <c r="J80" s="36">
+      <c r="J80" s="35">
         <v>2</v>
       </c>
-      <c r="K80" s="36">
+      <c r="K80" s="35">
         <v>63699</v>
       </c>
-      <c r="L80" s="36">
+      <c r="L80" s="35">
         <v>13</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N80" s="34"/>
+      <c r="N80" s="33"/>
       <c r="Q80" s="4" t="s">
         <v>180</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="C81" s="11">
         <v>2015</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="11">
@@ -6140,22 +6140,22 @@
       <c r="I81" s="16">
         <v>1</v>
       </c>
-      <c r="J81" s="36">
+      <c r="J81" s="35">
         <v>20</v>
       </c>
-      <c r="K81" s="36">
+      <c r="K81" s="35">
         <v>15520</v>
       </c>
-      <c r="L81" s="36">
+      <c r="L81" s="35">
         <v>4</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N81" s="35">
+      <c r="N81" s="34">
         <v>20</v>
       </c>
-      <c r="P81" s="37">
+      <c r="P81" s="36">
         <v>0.8</v>
       </c>
       <c r="Q81" s="4" t="s">
@@ -6182,7 +6182,7 @@
       <c r="C82" s="11">
         <v>2015</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E82" s="11">
@@ -6200,22 +6200,22 @@
       <c r="I82" s="16">
         <v>1</v>
       </c>
-      <c r="J82" s="36">
+      <c r="J82" s="35">
         <v>2</v>
       </c>
-      <c r="K82" s="36">
+      <c r="K82" s="35">
         <v>15520</v>
       </c>
-      <c r="L82" s="36">
+      <c r="L82" s="35">
         <v>4</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N82" s="35">
+      <c r="N82" s="34">
         <v>2</v>
       </c>
-      <c r="P82" s="37">
+      <c r="P82" s="36">
         <v>0.8</v>
       </c>
       <c r="Q82" s="4" t="s">
@@ -6242,7 +6242,7 @@
       <c r="C83" s="11">
         <v>2015</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="28" t="s">
         <v>96</v>
       </c>
       <c r="E83" s="11" t="s">
@@ -6260,19 +6260,19 @@
       <c r="I83" s="16">
         <v>1</v>
       </c>
-      <c r="J83" s="36">
-        <v>1</v>
-      </c>
-      <c r="K83" s="36">
+      <c r="J83" s="35">
+        <v>1</v>
+      </c>
+      <c r="K83" s="35">
         <v>69248</v>
       </c>
-      <c r="L83" s="36">
+      <c r="L83" s="35">
         <v>6</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N83" s="34"/>
+      <c r="N83" s="33"/>
       <c r="Q83" s="4" t="s">
         <v>180</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="C84" s="11">
         <v>2015</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E84" s="11" t="s">
@@ -6315,19 +6315,19 @@
       <c r="I84" s="16">
         <v>1</v>
       </c>
-      <c r="J84" s="36">
-        <v>1</v>
-      </c>
-      <c r="K84" s="36">
+      <c r="J84" s="35">
+        <v>1</v>
+      </c>
+      <c r="K84" s="35">
         <v>10334</v>
       </c>
-      <c r="L84" s="36">
+      <c r="L84" s="35">
         <v>13</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N84" s="33"/>
+      <c r="N84" s="32"/>
       <c r="Q84" s="4" t="s">
         <v>180</v>
       </c>
@@ -6370,19 +6370,19 @@
       <c r="I85" s="16">
         <v>1</v>
       </c>
-      <c r="J85" s="36">
-        <v>1</v>
-      </c>
-      <c r="K85" s="36">
+      <c r="J85" s="35">
+        <v>1</v>
+      </c>
+      <c r="K85" s="35">
         <v>38666.666666666664</v>
       </c>
-      <c r="L85" s="36">
+      <c r="L85" s="35">
         <v>12</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N85" s="33"/>
+      <c r="N85" s="32"/>
       <c r="Q85" s="4" t="s">
         <v>180</v>
       </c>
@@ -6425,22 +6425,22 @@
       <c r="I86" s="16">
         <v>1</v>
       </c>
-      <c r="J86" s="36">
-        <v>1</v>
-      </c>
-      <c r="K86" s="36">
+      <c r="J86" s="35">
+        <v>1</v>
+      </c>
+      <c r="K86" s="35">
         <v>81395</v>
       </c>
-      <c r="L86" s="36">
+      <c r="L86" s="35">
         <v>6</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N86" s="33">
-        <v>1</v>
-      </c>
-      <c r="P86" s="37">
+      <c r="N86" s="32">
+        <v>1</v>
+      </c>
+      <c r="P86" s="36">
         <v>0.6</v>
       </c>
       <c r="Q86" s="4" t="s">
@@ -6467,7 +6467,7 @@
       <c r="C87" s="11">
         <v>2015</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E87" s="11" t="s">
@@ -6485,22 +6485,22 @@
       <c r="I87" s="16">
         <v>1</v>
       </c>
-      <c r="J87" s="36">
-        <v>1</v>
-      </c>
-      <c r="K87" s="36">
+      <c r="J87" s="35">
+        <v>1</v>
+      </c>
+      <c r="K87" s="35">
         <v>200000</v>
       </c>
-      <c r="L87" s="36">
+      <c r="L87" s="35">
         <v>1</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N87" s="36">
-        <v>1</v>
-      </c>
-      <c r="P87" s="37">
+      <c r="N87" s="35">
+        <v>1</v>
+      </c>
+      <c r="P87" s="36">
         <v>0.6</v>
       </c>
       <c r="Q87" s="4" t="s">
@@ -6527,7 +6527,7 @@
       <c r="C88" s="11">
         <v>2015</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E88" s="11" t="s">
@@ -6545,22 +6545,22 @@
       <c r="I88" s="16">
         <v>1</v>
       </c>
-      <c r="J88" s="36">
-        <v>1</v>
-      </c>
-      <c r="K88" s="36">
+      <c r="J88" s="35">
+        <v>1</v>
+      </c>
+      <c r="K88" s="35">
         <v>390000</v>
       </c>
-      <c r="L88" s="36">
+      <c r="L88" s="35">
         <v>1</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N88" s="36">
-        <v>1</v>
-      </c>
-      <c r="P88" s="37">
+      <c r="N88" s="35">
+        <v>1</v>
+      </c>
+      <c r="P88" s="36">
         <v>0.6</v>
       </c>
       <c r="Q88" s="4" t="s">
@@ -6587,7 +6587,7 @@
       <c r="C89" s="11">
         <v>2015</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="21" t="s">
         <v>101</v>
       </c>
       <c r="E89" s="11" t="s">
@@ -6605,22 +6605,22 @@
       <c r="I89" s="16">
         <v>1</v>
       </c>
-      <c r="J89" s="36">
-        <v>1</v>
-      </c>
-      <c r="K89" s="36">
+      <c r="J89" s="35">
+        <v>1</v>
+      </c>
+      <c r="K89" s="35">
         <v>380000</v>
       </c>
-      <c r="L89" s="36">
+      <c r="L89" s="35">
         <v>1</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N89" s="36">
-        <v>1</v>
-      </c>
-      <c r="P89" s="37">
+      <c r="N89" s="35">
+        <v>1</v>
+      </c>
+      <c r="P89" s="36">
         <v>0.6</v>
       </c>
       <c r="Q89" s="4" t="s">
@@ -6647,7 +6647,7 @@
       <c r="C90" s="11">
         <v>2015</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E90" s="11" t="s">
@@ -6665,22 +6665,22 @@
       <c r="I90" s="16">
         <v>1</v>
       </c>
-      <c r="J90" s="36">
-        <v>1</v>
-      </c>
-      <c r="K90" s="36">
+      <c r="J90" s="35">
+        <v>1</v>
+      </c>
+      <c r="K90" s="35">
         <v>304000</v>
       </c>
-      <c r="L90" s="36">
+      <c r="L90" s="35">
         <v>1</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N90" s="36">
-        <v>1</v>
-      </c>
-      <c r="P90" s="37">
+      <c r="N90" s="35">
+        <v>1</v>
+      </c>
+      <c r="P90" s="36">
         <v>0.6</v>
       </c>
       <c r="Q90" s="4" t="s">
@@ -6725,22 +6725,22 @@
       <c r="I91" s="16">
         <v>1</v>
       </c>
-      <c r="J91" s="36">
+      <c r="J91" s="35">
         <v>3500</v>
       </c>
-      <c r="K91" s="36">
+      <c r="K91" s="35">
         <v>19</v>
       </c>
-      <c r="L91" s="36">
+      <c r="L91" s="35">
         <v>2</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N91" s="36">
+      <c r="N91" s="35">
         <v>3500</v>
       </c>
-      <c r="P91" s="37">
+      <c r="P91" s="36">
         <v>0.8</v>
       </c>
       <c r="Q91" s="4" t="s">
@@ -6785,22 +6785,22 @@
       <c r="I92" s="16">
         <v>1</v>
       </c>
-      <c r="J92" s="36">
+      <c r="J92" s="35">
         <v>14000</v>
       </c>
-      <c r="K92" s="36">
+      <c r="K92" s="35">
         <v>26.599999999999998</v>
       </c>
-      <c r="L92" s="36">
+      <c r="L92" s="35">
         <v>2</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N92" s="36">
+      <c r="N92" s="35">
         <v>14000</v>
       </c>
-      <c r="P92" s="37">
+      <c r="P92" s="36">
         <v>0.8</v>
       </c>
       <c r="Q92" s="4" t="s">
@@ -6845,22 +6845,22 @@
       <c r="I93" s="16">
         <v>1</v>
       </c>
-      <c r="J93" s="36">
+      <c r="J93" s="35">
         <v>8000</v>
       </c>
-      <c r="K93" s="36">
+      <c r="K93" s="35">
         <v>41.800000000000004</v>
       </c>
-      <c r="L93" s="36">
+      <c r="L93" s="35">
         <v>2</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N93" s="36">
+      <c r="N93" s="35">
         <v>8000</v>
       </c>
-      <c r="P93" s="37">
+      <c r="P93" s="36">
         <v>0.8</v>
       </c>
       <c r="Q93" s="4" t="s">
@@ -6905,22 +6905,22 @@
       <c r="I94" s="16">
         <v>1</v>
       </c>
-      <c r="J94" s="36">
+      <c r="J94" s="35">
         <v>41000</v>
       </c>
-      <c r="K94" s="36">
+      <c r="K94" s="35">
         <v>57</v>
       </c>
-      <c r="L94" s="36">
+      <c r="L94" s="35">
         <v>2</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N94" s="36">
+      <c r="N94" s="35">
         <v>41000</v>
       </c>
-      <c r="P94" s="37">
+      <c r="P94" s="36">
         <v>0.8</v>
       </c>
       <c r="Q94" s="4" t="s">
@@ -6965,22 +6965,22 @@
       <c r="I95" s="16">
         <v>1</v>
       </c>
-      <c r="J95" s="36">
+      <c r="J95" s="35">
         <v>5000</v>
       </c>
-      <c r="K95" s="36">
+      <c r="K95" s="35">
         <v>72.58</v>
       </c>
-      <c r="L95" s="36">
+      <c r="L95" s="35">
         <v>2</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N95" s="36">
+      <c r="N95" s="35">
         <v>5000</v>
       </c>
-      <c r="P95" s="37">
+      <c r="P95" s="36">
         <v>0.8</v>
       </c>
       <c r="Q95" s="4" t="s">
@@ -7007,7 +7007,7 @@
       <c r="C96" s="11">
         <v>2015</v>
       </c>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="37" t="s">
         <v>108</v>
       </c>
       <c r="E96" s="11" t="s">
@@ -7025,19 +7025,19 @@
       <c r="I96" s="16">
         <v>1</v>
       </c>
-      <c r="J96" s="36">
+      <c r="J96" s="35">
         <v>3000</v>
       </c>
-      <c r="K96" s="36">
+      <c r="K96" s="35">
         <v>34.650455927051674</v>
       </c>
-      <c r="L96" s="36">
+      <c r="L96" s="35">
         <v>1</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N96" s="33"/>
+      <c r="N96" s="32"/>
       <c r="Q96" s="4" t="s">
         <v>180</v>
       </c>
@@ -7080,19 +7080,19 @@
       <c r="I97" s="16">
         <v>1</v>
       </c>
-      <c r="J97" s="36">
+      <c r="J97" s="35">
         <v>200</v>
       </c>
-      <c r="K97" s="36">
+      <c r="K97" s="35">
         <v>282.13932584269662</v>
       </c>
-      <c r="L97" s="36">
+      <c r="L97" s="35">
         <v>1</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N97" s="33"/>
+      <c r="N97" s="32"/>
       <c r="Q97" s="4" t="s">
         <v>180</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="C98" s="11">
         <v>2015</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E98" s="11" t="s">
@@ -7135,19 +7135,19 @@
       <c r="I98" s="16">
         <v>1</v>
       </c>
-      <c r="J98" s="36">
+      <c r="J98" s="35">
         <v>100</v>
       </c>
-      <c r="K98" s="36">
+      <c r="K98" s="35">
         <v>76</v>
       </c>
-      <c r="L98" s="36">
+      <c r="L98" s="35">
         <v>1</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N98" s="33"/>
+      <c r="N98" s="32"/>
       <c r="Q98" s="4" t="s">
         <v>180</v>
       </c>
@@ -7172,7 +7172,7 @@
       <c r="C99" s="11">
         <v>2015</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="21" t="s">
         <v>111</v>
       </c>
       <c r="E99" s="11" t="s">
@@ -7190,22 +7190,22 @@
       <c r="I99" s="16">
         <v>1</v>
       </c>
-      <c r="J99" s="36">
+      <c r="J99" s="35">
         <v>300</v>
       </c>
-      <c r="K99" s="36">
+      <c r="K99" s="35">
         <v>57</v>
       </c>
-      <c r="L99" s="36">
+      <c r="L99" s="35">
         <v>1</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N99" s="33">
+      <c r="N99" s="32">
         <v>300</v>
       </c>
-      <c r="P99" s="37">
+      <c r="P99" s="36">
         <v>1</v>
       </c>
       <c r="Q99" s="4" t="s">
@@ -7232,7 +7232,7 @@
       <c r="C100" s="11">
         <v>2015</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="21" t="s">
         <v>112</v>
       </c>
       <c r="E100" s="11" t="s">
@@ -7250,19 +7250,19 @@
       <c r="I100" s="16">
         <v>1</v>
       </c>
-      <c r="J100" s="36">
+      <c r="J100" s="35">
         <v>5000</v>
       </c>
-      <c r="K100" s="36">
-        <v>1</v>
-      </c>
-      <c r="L100" s="36">
+      <c r="K100" s="35">
+        <v>1</v>
+      </c>
+      <c r="L100" s="35">
         <v>1</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N100" s="33"/>
+      <c r="N100" s="32"/>
       <c r="Q100" s="4" t="s">
         <v>180</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="C101" s="11">
         <v>2015</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="21" t="s">
         <v>113</v>
       </c>
       <c r="E101" s="11" t="s">
@@ -7305,19 +7305,19 @@
       <c r="I101" s="16">
         <v>1</v>
       </c>
-      <c r="J101" s="36">
+      <c r="J101" s="35">
         <v>20000</v>
       </c>
-      <c r="K101" s="36">
+      <c r="K101" s="35">
         <v>104.88</v>
       </c>
-      <c r="L101" s="36">
+      <c r="L101" s="35">
         <v>1</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N101" s="33"/>
+      <c r="N101" s="32"/>
       <c r="Q101" s="4" t="s">
         <v>180</v>
       </c>
@@ -7360,19 +7360,19 @@
       <c r="I102" s="16">
         <v>1</v>
       </c>
-      <c r="J102" s="36">
+      <c r="J102" s="35">
         <v>210</v>
       </c>
-      <c r="K102" s="36">
+      <c r="K102" s="35">
         <v>1707.8651685393261</v>
       </c>
-      <c r="L102" s="36">
+      <c r="L102" s="35">
         <v>1</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N102" s="33"/>
+      <c r="N102" s="32"/>
       <c r="Q102" s="4" t="s">
         <v>180</v>
       </c>
@@ -7415,22 +7415,22 @@
       <c r="I103" s="16">
         <v>1</v>
       </c>
-      <c r="J103" s="36">
-        <v>1</v>
-      </c>
-      <c r="K103" s="36">
+      <c r="J103" s="35">
+        <v>1</v>
+      </c>
+      <c r="K103" s="35">
         <v>456000</v>
       </c>
-      <c r="L103" s="36">
+      <c r="L103" s="35">
         <v>1</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N103" s="33">
-        <v>1</v>
-      </c>
-      <c r="P103" s="37">
+      <c r="N103" s="32">
+        <v>1</v>
+      </c>
+      <c r="P103" s="36">
         <v>1</v>
       </c>
       <c r="Q103" s="4" t="s">
@@ -7475,22 +7475,22 @@
       <c r="I104" s="16">
         <v>1</v>
       </c>
-      <c r="J104" s="36">
+      <c r="J104" s="35">
         <v>200000</v>
       </c>
-      <c r="K104" s="36">
+      <c r="K104" s="35">
         <v>0.56788247213779131</v>
       </c>
-      <c r="L104" s="36">
+      <c r="L104" s="35">
         <v>1</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N104" s="36">
+      <c r="N104" s="35">
         <v>200000</v>
       </c>
-      <c r="P104" s="37">
+      <c r="P104" s="36">
         <v>0.8</v>
       </c>
       <c r="Q104" s="4" t="s">
@@ -7535,22 +7535,22 @@
       <c r="I105" s="16">
         <v>1</v>
       </c>
-      <c r="J105" s="36">
+      <c r="J105" s="35">
         <v>1000</v>
       </c>
-      <c r="K105" s="36">
+      <c r="K105" s="35">
         <v>5.7750759878419453</v>
       </c>
-      <c r="L105" s="36">
+      <c r="L105" s="35">
         <v>1</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N105" s="36">
+      <c r="N105" s="35">
         <v>1000</v>
       </c>
-      <c r="P105" s="37">
+      <c r="P105" s="36">
         <v>0.8</v>
       </c>
       <c r="Q105" s="4" t="s">
@@ -7595,22 +7595,22 @@
       <c r="I106" s="16">
         <v>1</v>
       </c>
-      <c r="J106" s="36">
+      <c r="J106" s="35">
         <v>400</v>
       </c>
-      <c r="K106" s="36">
+      <c r="K106" s="35">
         <v>17.325227963525837</v>
       </c>
-      <c r="L106" s="36">
+      <c r="L106" s="35">
         <v>1</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N106" s="36">
+      <c r="N106" s="35">
         <v>400</v>
       </c>
-      <c r="P106" s="37">
+      <c r="P106" s="36">
         <v>0.8</v>
       </c>
       <c r="Q106" s="4" t="s">
@@ -7637,7 +7637,7 @@
       <c r="C107" s="11">
         <v>2015</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E107" s="11" t="s">
@@ -7655,22 +7655,22 @@
       <c r="I107" s="16">
         <v>1</v>
       </c>
-      <c r="J107" s="36">
+      <c r="J107" s="35">
         <v>400</v>
       </c>
-      <c r="K107" s="36">
+      <c r="K107" s="35">
         <v>28.875379939209729</v>
       </c>
-      <c r="L107" s="36">
+      <c r="L107" s="35">
         <v>1</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N107" s="36">
+      <c r="N107" s="35">
         <v>400</v>
       </c>
-      <c r="P107" s="37">
+      <c r="P107" s="36">
         <v>0.8</v>
       </c>
       <c r="Q107" s="4" t="s">
@@ -7715,22 +7715,22 @@
       <c r="I108" s="16">
         <v>1</v>
       </c>
-      <c r="J108" s="36">
+      <c r="J108" s="35">
         <v>400</v>
       </c>
-      <c r="K108" s="36">
+      <c r="K108" s="35">
         <v>115.50151975683892</v>
       </c>
-      <c r="L108" s="36">
+      <c r="L108" s="35">
         <v>1</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N108" s="36">
+      <c r="N108" s="35">
         <v>400</v>
       </c>
-      <c r="P108" s="37">
+      <c r="P108" s="36">
         <v>0.8</v>
       </c>
       <c r="Q108" s="4" t="s">
@@ -7757,7 +7757,7 @@
       <c r="C109" s="11">
         <v>2015</v>
       </c>
-      <c r="D109" s="22" t="s">
+      <c r="D109" s="21" t="s">
         <v>121</v>
       </c>
       <c r="E109" s="11" t="s">
@@ -7775,22 +7775,22 @@
       <c r="I109" s="16">
         <v>1</v>
       </c>
-      <c r="J109" s="36">
+      <c r="J109" s="35">
         <v>400</v>
       </c>
-      <c r="K109" s="36">
+      <c r="K109" s="35">
         <v>69.300911854103347</v>
       </c>
-      <c r="L109" s="36">
+      <c r="L109" s="35">
         <v>1</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N109" s="36">
+      <c r="N109" s="35">
         <v>400</v>
       </c>
-      <c r="P109" s="37">
+      <c r="P109" s="36">
         <v>0.8</v>
       </c>
       <c r="Q109" s="4" t="s">
@@ -7817,7 +7817,7 @@
       <c r="C110" s="11">
         <v>2015</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="21" t="s">
         <v>122</v>
       </c>
       <c r="E110" s="11" t="s">
@@ -7835,22 +7835,22 @@
       <c r="I110" s="16">
         <v>1</v>
       </c>
-      <c r="J110" s="36">
+      <c r="J110" s="35">
         <v>50</v>
       </c>
-      <c r="K110" s="36">
+      <c r="K110" s="35">
         <v>462.00607902735567</v>
       </c>
-      <c r="L110" s="36">
+      <c r="L110" s="35">
         <v>1</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N110" s="36">
+      <c r="N110" s="35">
         <v>50</v>
       </c>
-      <c r="P110" s="37">
+      <c r="P110" s="36">
         <v>0.8</v>
       </c>
       <c r="Q110" s="4" t="s">
@@ -7877,7 +7877,7 @@
       <c r="C111" s="11">
         <v>2015</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E111" s="11" t="s">
@@ -7895,22 +7895,22 @@
       <c r="I111" s="16">
         <v>1</v>
       </c>
-      <c r="J111" s="36">
+      <c r="J111" s="35">
         <v>50</v>
       </c>
-      <c r="K111" s="36">
+      <c r="K111" s="35">
         <v>11.550151975683891</v>
       </c>
-      <c r="L111" s="36">
+      <c r="L111" s="35">
         <v>1</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N111" s="36">
+      <c r="N111" s="35">
         <v>50</v>
       </c>
-      <c r="P111" s="37">
+      <c r="P111" s="36">
         <v>0.8</v>
       </c>
       <c r="Q111" s="4" t="s">
@@ -7937,7 +7937,7 @@
       <c r="C112" s="11">
         <v>2015</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="21" t="s">
         <v>124</v>
       </c>
       <c r="E112" s="11" t="s">
@@ -7955,22 +7955,22 @@
       <c r="I112" s="16">
         <v>1</v>
       </c>
-      <c r="J112" s="36">
+      <c r="J112" s="35">
         <v>400</v>
       </c>
-      <c r="K112" s="36">
+      <c r="K112" s="35">
         <v>57.750759878419458</v>
       </c>
-      <c r="L112" s="36">
+      <c r="L112" s="35">
         <v>1</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N112" s="36">
+      <c r="N112" s="35">
         <v>400</v>
       </c>
-      <c r="P112" s="37">
+      <c r="P112" s="36">
         <v>0.8</v>
       </c>
       <c r="Q112" s="4" t="s">
@@ -8015,22 +8015,22 @@
       <c r="I113" s="16">
         <v>1</v>
       </c>
-      <c r="J113" s="36">
+      <c r="J113" s="35">
         <v>400</v>
       </c>
-      <c r="K113" s="36">
-        <v>1</v>
-      </c>
-      <c r="L113" s="36">
+      <c r="K113" s="35">
+        <v>1</v>
+      </c>
+      <c r="L113" s="35">
         <v>1</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N113" s="36">
+      <c r="N113" s="35">
         <v>400</v>
       </c>
-      <c r="P113" s="37">
+      <c r="P113" s="36">
         <v>0.8</v>
       </c>
       <c r="Q113" s="4" t="s">
@@ -8075,22 +8075,22 @@
       <c r="I114" s="16">
         <v>1</v>
       </c>
-      <c r="J114" s="36">
+      <c r="J114" s="35">
         <v>10</v>
       </c>
-      <c r="K114" s="36">
-        <v>1</v>
-      </c>
-      <c r="L114" s="36">
+      <c r="K114" s="35">
+        <v>1</v>
+      </c>
+      <c r="L114" s="35">
         <v>1</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N114" s="36">
+      <c r="N114" s="35">
         <v>10</v>
       </c>
-      <c r="P114" s="37">
+      <c r="P114" s="36">
         <v>0.8</v>
       </c>
       <c r="Q114" s="4" t="s">
@@ -8135,22 +8135,22 @@
       <c r="I115" s="16">
         <v>1</v>
       </c>
-      <c r="J115" s="36">
+      <c r="J115" s="35">
         <v>1000</v>
       </c>
-      <c r="K115" s="36">
+      <c r="K115" s="35">
         <v>106.838905775076</v>
       </c>
-      <c r="L115" s="36">
+      <c r="L115" s="35">
         <v>1</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N115" s="36">
+      <c r="N115" s="35">
         <v>1000</v>
       </c>
-      <c r="P115" s="37">
+      <c r="P115" s="36">
         <v>0.8</v>
       </c>
       <c r="Q115" s="4" t="s">
@@ -8195,22 +8195,22 @@
       <c r="I116" s="16">
         <v>1</v>
       </c>
-      <c r="J116" s="36">
+      <c r="J116" s="35">
         <v>500</v>
       </c>
-      <c r="K116" s="36">
+      <c r="K116" s="35">
         <v>49.088145896656535</v>
       </c>
-      <c r="L116" s="36">
+      <c r="L116" s="35">
         <v>1</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N116" s="36">
+      <c r="N116" s="35">
         <v>500</v>
       </c>
-      <c r="P116" s="37">
+      <c r="P116" s="36">
         <v>0.8</v>
       </c>
       <c r="Q116" s="4" t="s">
@@ -8255,22 +8255,22 @@
       <c r="I117" s="16">
         <v>1</v>
       </c>
-      <c r="J117" s="36">
+      <c r="J117" s="35">
         <v>210</v>
       </c>
-      <c r="K117" s="36">
+      <c r="K117" s="35">
         <v>548.63221884498489</v>
       </c>
-      <c r="L117" s="36">
+      <c r="L117" s="35">
         <v>1</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N117" s="36">
+      <c r="N117" s="35">
         <v>210</v>
       </c>
-      <c r="P117" s="37">
+      <c r="P117" s="36">
         <v>0.8</v>
       </c>
       <c r="Q117" s="4" t="s">
@@ -8297,7 +8297,7 @@
       <c r="C118" s="11">
         <v>2015</v>
       </c>
-      <c r="D118" s="38" t="s">
+      <c r="D118" s="37" t="s">
         <v>130</v>
       </c>
       <c r="E118" s="11" t="s">
@@ -8315,22 +8315,22 @@
       <c r="I118" s="16">
         <v>1</v>
       </c>
-      <c r="J118" s="36">
+      <c r="J118" s="35">
         <v>420</v>
       </c>
-      <c r="K118" s="36">
+      <c r="K118" s="35">
         <v>163.43465045592706</v>
       </c>
-      <c r="L118" s="36">
+      <c r="L118" s="35">
         <v>1</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N118" s="36">
+      <c r="N118" s="35">
         <v>420</v>
       </c>
-      <c r="P118" s="37">
+      <c r="P118" s="36">
         <v>0.8</v>
       </c>
       <c r="Q118" s="4" t="s">
@@ -8375,22 +8375,22 @@
       <c r="I119" s="16">
         <v>1</v>
       </c>
-      <c r="J119" s="36">
+      <c r="J119" s="35">
         <v>10</v>
       </c>
-      <c r="K119" s="36">
+      <c r="K119" s="35">
         <v>115.50151975683892</v>
       </c>
-      <c r="L119" s="36">
+      <c r="L119" s="35">
         <v>1</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N119" s="36">
+      <c r="N119" s="35">
         <v>10</v>
       </c>
-      <c r="P119" s="37">
+      <c r="P119" s="36">
         <v>0.8</v>
       </c>
       <c r="Q119" s="4" t="s">
@@ -8435,22 +8435,22 @@
       <c r="I120" s="16">
         <v>1</v>
       </c>
-      <c r="J120" s="36">
+      <c r="J120" s="35">
         <v>8000</v>
       </c>
-      <c r="K120" s="36">
+      <c r="K120" s="35">
         <v>18.239999999999998</v>
       </c>
-      <c r="L120" s="36">
+      <c r="L120" s="35">
         <v>30</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N120" s="33">
+      <c r="N120" s="32">
         <v>8000</v>
       </c>
-      <c r="P120" s="37">
+      <c r="P120" s="36">
         <v>1</v>
       </c>
       <c r="Q120" s="4" t="s">
@@ -8495,22 +8495,22 @@
       <c r="I121" s="16">
         <v>1</v>
       </c>
-      <c r="J121" s="36">
+      <c r="J121" s="35">
         <v>20</v>
       </c>
-      <c r="K121" s="36">
+      <c r="K121" s="35">
         <v>95000</v>
       </c>
-      <c r="L121" s="36">
+      <c r="L121" s="35">
         <v>1</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N121" s="33">
+      <c r="N121" s="32">
         <v>20</v>
       </c>
-      <c r="P121" s="37">
+      <c r="P121" s="36">
         <v>1</v>
       </c>
       <c r="Q121" s="4" t="s">
@@ -8540,7 +8540,7 @@
       <c r="D122" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="29" t="s">
         <v>243</v>
       </c>
       <c r="F122" s="11" t="s">
@@ -8555,22 +8555,22 @@
       <c r="I122" s="16">
         <v>1</v>
       </c>
-      <c r="J122" s="36">
+      <c r="J122" s="35">
         <v>20</v>
       </c>
-      <c r="K122" s="36">
+      <c r="K122" s="35">
         <v>9500</v>
       </c>
-      <c r="L122" s="36">
+      <c r="L122" s="35">
         <v>30</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N122" s="33">
+      <c r="N122" s="32">
         <v>20</v>
       </c>
-      <c r="P122" s="37">
+      <c r="P122" s="36">
         <v>1</v>
       </c>
       <c r="Q122" s="4" t="s">
@@ -8613,22 +8613,22 @@
       <c r="I123" s="16">
         <v>1</v>
       </c>
-      <c r="J123" s="36">
+      <c r="J123" s="35">
         <v>200</v>
       </c>
-      <c r="K123" s="36">
+      <c r="K123" s="35">
         <v>8813.4536082474224</v>
       </c>
-      <c r="L123" s="36">
+      <c r="L123" s="35">
         <v>1</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N123" s="36">
+      <c r="N123" s="35">
         <v>200</v>
       </c>
-      <c r="P123" s="37">
+      <c r="P123" s="36">
         <v>1</v>
       </c>
       <c r="Q123" s="4" t="s">
@@ -8671,22 +8671,22 @@
       <c r="I124" s="16">
         <v>1</v>
       </c>
-      <c r="J124" s="36">
+      <c r="J124" s="35">
         <v>50</v>
       </c>
-      <c r="K124" s="36">
+      <c r="K124" s="35">
         <v>3036.2000000000003</v>
       </c>
-      <c r="L124" s="36">
+      <c r="L124" s="35">
         <v>1</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N124" s="36">
+      <c r="N124" s="35">
         <v>50</v>
       </c>
-      <c r="P124" s="37">
+      <c r="P124" s="36">
         <v>1</v>
       </c>
       <c r="Q124" s="4" t="s">
@@ -8723,28 +8723,28 @@
       <c r="G125" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H125" s="25">
+      <c r="H125" s="24">
         <v>1</v>
       </c>
       <c r="I125" s="16">
         <v>1</v>
       </c>
-      <c r="J125" s="36">
+      <c r="J125" s="35">
         <v>20</v>
       </c>
-      <c r="K125" s="36">
+      <c r="K125" s="35">
         <v>600</v>
       </c>
-      <c r="L125" s="36">
+      <c r="L125" s="35">
         <v>4</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N125" s="36">
+      <c r="N125" s="35">
         <v>20</v>
       </c>
-      <c r="P125" s="37">
+      <c r="P125" s="36">
         <v>1</v>
       </c>
       <c r="Q125" s="4" t="s">
@@ -8787,22 +8787,22 @@
       <c r="I126" s="16">
         <v>1</v>
       </c>
-      <c r="J126" s="36">
+      <c r="J126" s="35">
         <v>2</v>
       </c>
-      <c r="K126" s="36">
+      <c r="K126" s="35">
         <v>95000</v>
       </c>
-      <c r="L126" s="36">
+      <c r="L126" s="35">
         <v>1</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N126" s="36">
+      <c r="N126" s="35">
         <v>2</v>
       </c>
-      <c r="P126" s="37">
+      <c r="P126" s="36">
         <v>1</v>
       </c>
       <c r="Q126" s="4" t="s">
@@ -8845,22 +8845,22 @@
       <c r="I127" s="16">
         <v>1</v>
       </c>
-      <c r="J127" s="36">
+      <c r="J127" s="35">
         <v>200</v>
       </c>
-      <c r="K127" s="36">
+      <c r="K127" s="35">
         <v>489.82000000000005</v>
       </c>
-      <c r="L127" s="36">
+      <c r="L127" s="35">
         <v>1</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N127" s="36">
+      <c r="N127" s="35">
         <v>200</v>
       </c>
-      <c r="P127" s="37">
+      <c r="P127" s="36">
         <v>1</v>
       </c>
       <c r="Q127" s="4" t="s">
@@ -8905,22 +8905,22 @@
       <c r="I128" s="16">
         <v>0.8</v>
       </c>
-      <c r="J128" s="36">
+      <c r="J128" s="35">
         <v>19</v>
       </c>
-      <c r="K128" s="36">
+      <c r="K128" s="35">
         <v>10974</v>
       </c>
-      <c r="L128" s="36">
+      <c r="L128" s="35">
         <v>13</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N128" s="33">
+      <c r="N128" s="32">
         <v>19</v>
       </c>
-      <c r="P128" s="37">
+      <c r="P128" s="36">
         <v>0.8</v>
       </c>
       <c r="Q128" s="4" t="s">
@@ -8965,22 +8965,22 @@
       <c r="I129" s="16">
         <v>0.2</v>
       </c>
-      <c r="J129" s="36">
+      <c r="J129" s="35">
         <v>9</v>
       </c>
-      <c r="K129" s="36">
+      <c r="K129" s="35">
         <v>2500</v>
       </c>
-      <c r="L129" s="36">
+      <c r="L129" s="35">
         <v>13</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N129" s="33">
+      <c r="N129" s="32">
         <v>9</v>
       </c>
-      <c r="P129" s="37">
+      <c r="P129" s="36">
         <v>1</v>
       </c>
       <c r="Q129" s="4" t="s">
@@ -9025,22 +9025,22 @@
       <c r="I130" s="16">
         <v>0.2</v>
       </c>
-      <c r="J130" s="36">
+      <c r="J130" s="35">
         <v>27</v>
       </c>
-      <c r="K130" s="36">
+      <c r="K130" s="35">
         <v>1500</v>
       </c>
-      <c r="L130" s="36">
+      <c r="L130" s="35">
         <v>13</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N130" s="33">
+      <c r="N130" s="32">
         <v>27</v>
       </c>
-      <c r="P130" s="37">
+      <c r="P130" s="36">
         <v>1</v>
       </c>
       <c r="Q130" s="4" t="s">
@@ -9085,19 +9085,19 @@
       <c r="I131" s="16">
         <v>1</v>
       </c>
-      <c r="J131" s="39">
+      <c r="J131" s="38">
         <v>4</v>
       </c>
-      <c r="K131" s="36">
+      <c r="K131" s="35">
         <v>15520</v>
       </c>
-      <c r="L131" s="36">
+      <c r="L131" s="35">
         <v>13</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N131" s="39"/>
+      <c r="N131" s="38"/>
       <c r="Q131" s="4" t="s">
         <v>180</v>
       </c>
@@ -9140,19 +9140,19 @@
       <c r="I132" s="16">
         <v>1</v>
       </c>
-      <c r="J132" s="39">
-        <v>1</v>
-      </c>
-      <c r="K132" s="36">
+      <c r="J132" s="38">
+        <v>1</v>
+      </c>
+      <c r="K132" s="35">
         <v>38666.666666666664</v>
       </c>
-      <c r="L132" s="36">
+      <c r="L132" s="35">
         <v>12</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N132" s="39"/>
+      <c r="N132" s="38"/>
       <c r="Q132" s="4" t="s">
         <v>180</v>
       </c>
@@ -9195,22 +9195,22 @@
       <c r="I133" s="16">
         <v>1</v>
       </c>
-      <c r="J133" s="39">
-        <v>1</v>
-      </c>
-      <c r="K133" s="36">
+      <c r="J133" s="38">
+        <v>1</v>
+      </c>
+      <c r="K133" s="35">
         <v>81395</v>
       </c>
-      <c r="L133" s="36">
+      <c r="L133" s="35">
         <v>12</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N133" s="39">
-        <v>1</v>
-      </c>
-      <c r="P133" s="37">
+      <c r="N133" s="38">
+        <v>1</v>
+      </c>
+      <c r="P133" s="36">
         <v>0.2</v>
       </c>
       <c r="Q133" s="4" t="s">
@@ -9237,7 +9237,7 @@
       <c r="C134" s="11">
         <v>2017</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="D134" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E134" s="11" t="s">
@@ -9255,22 +9255,22 @@
       <c r="I134" s="16">
         <v>1</v>
       </c>
-      <c r="J134" s="39">
-        <v>1</v>
-      </c>
-      <c r="K134" s="36">
+      <c r="J134" s="38">
+        <v>1</v>
+      </c>
+      <c r="K134" s="35">
         <v>200000</v>
       </c>
-      <c r="L134" s="36">
+      <c r="L134" s="35">
         <v>1</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N134" s="39">
-        <v>1</v>
-      </c>
-      <c r="P134" s="37">
+      <c r="N134" s="38">
+        <v>1</v>
+      </c>
+      <c r="P134" s="36">
         <v>0.2</v>
       </c>
       <c r="Q134" s="4" t="s">
@@ -9297,7 +9297,7 @@
       <c r="C135" s="11">
         <v>2017</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E135" s="11" t="s">
@@ -9315,22 +9315,22 @@
       <c r="I135" s="16">
         <v>1</v>
       </c>
-      <c r="J135" s="39">
-        <v>1</v>
-      </c>
-      <c r="K135" s="36">
+      <c r="J135" s="38">
+        <v>1</v>
+      </c>
+      <c r="K135" s="35">
         <v>390000</v>
       </c>
-      <c r="L135" s="36">
+      <c r="L135" s="35">
         <v>1</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N135" s="39">
-        <v>1</v>
-      </c>
-      <c r="P135" s="37">
+      <c r="N135" s="38">
+        <v>1</v>
+      </c>
+      <c r="P135" s="36">
         <v>0.2</v>
       </c>
       <c r="Q135" s="4" t="s">
@@ -9357,7 +9357,7 @@
       <c r="C136" s="11">
         <v>2017</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D136" s="21" t="s">
         <v>101</v>
       </c>
       <c r="E136" s="11" t="s">
@@ -9375,22 +9375,22 @@
       <c r="I136" s="16">
         <v>1</v>
       </c>
-      <c r="J136" s="39">
-        <v>1</v>
-      </c>
-      <c r="K136" s="36">
+      <c r="J136" s="38">
+        <v>1</v>
+      </c>
+      <c r="K136" s="35">
         <v>380000</v>
       </c>
-      <c r="L136" s="36">
+      <c r="L136" s="35">
         <v>1</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N136" s="39">
-        <v>1</v>
-      </c>
-      <c r="P136" s="37">
+      <c r="N136" s="38">
+        <v>1</v>
+      </c>
+      <c r="P136" s="36">
         <v>0.2</v>
       </c>
       <c r="Q136" s="4" t="s">
@@ -9417,7 +9417,7 @@
       <c r="C137" s="11">
         <v>2017</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D137" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E137" s="11" t="s">
@@ -9435,22 +9435,22 @@
       <c r="I137" s="16">
         <v>1</v>
       </c>
-      <c r="J137" s="39">
-        <v>1</v>
-      </c>
-      <c r="K137" s="36">
+      <c r="J137" s="38">
+        <v>1</v>
+      </c>
+      <c r="K137" s="35">
         <v>304000</v>
       </c>
-      <c r="L137" s="36">
+      <c r="L137" s="35">
         <v>1</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N137" s="39">
-        <v>1</v>
-      </c>
-      <c r="P137" s="37">
+      <c r="N137" s="38">
+        <v>1</v>
+      </c>
+      <c r="P137" s="36">
         <v>0.2</v>
       </c>
       <c r="Q137" s="4" t="s">
@@ -9495,22 +9495,22 @@
       <c r="I138" s="16">
         <v>1</v>
       </c>
-      <c r="J138" s="39">
+      <c r="J138" s="38">
         <v>0</v>
       </c>
-      <c r="K138" s="36">
+      <c r="K138" s="35">
         <v>19</v>
       </c>
-      <c r="L138" s="36">
+      <c r="L138" s="35">
         <v>1</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N138" s="39">
+      <c r="N138" s="38">
         <v>0</v>
       </c>
-      <c r="P138" s="37">
+      <c r="P138" s="36">
         <v>1</v>
       </c>
       <c r="Q138" s="4" t="s">
@@ -9555,22 +9555,22 @@
       <c r="I139" s="16">
         <v>1</v>
       </c>
-      <c r="J139" s="39">
+      <c r="J139" s="38">
         <v>0</v>
       </c>
-      <c r="K139" s="36">
+      <c r="K139" s="35">
         <v>26.599999999999998</v>
       </c>
-      <c r="L139" s="36">
+      <c r="L139" s="35">
         <v>1</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N139" s="39">
+      <c r="N139" s="38">
         <v>0</v>
       </c>
-      <c r="P139" s="37">
+      <c r="P139" s="36">
         <v>1</v>
       </c>
       <c r="Q139" s="4" t="s">
@@ -9615,22 +9615,22 @@
       <c r="I140" s="16">
         <v>1</v>
       </c>
-      <c r="J140" s="39">
+      <c r="J140" s="38">
         <v>8000</v>
       </c>
-      <c r="K140" s="36">
+      <c r="K140" s="35">
         <v>41.800000000000004</v>
       </c>
-      <c r="L140" s="36">
+      <c r="L140" s="35">
         <v>1</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N140" s="39">
+      <c r="N140" s="38">
         <v>8000</v>
       </c>
-      <c r="P140" s="37">
+      <c r="P140" s="36">
         <v>1</v>
       </c>
       <c r="Q140" s="4" t="s">
@@ -9675,22 +9675,22 @@
       <c r="I141" s="16">
         <v>1</v>
       </c>
-      <c r="J141" s="39">
+      <c r="J141" s="38">
         <v>0</v>
       </c>
-      <c r="K141" s="36">
+      <c r="K141" s="35">
         <v>57</v>
       </c>
-      <c r="L141" s="36">
+      <c r="L141" s="35">
         <v>1</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N141" s="39">
+      <c r="N141" s="38">
         <v>0</v>
       </c>
-      <c r="P141" s="37">
+      <c r="P141" s="36">
         <v>1</v>
       </c>
       <c r="Q141" s="4" t="s">
@@ -9735,22 +9735,22 @@
       <c r="I142" s="16">
         <v>1</v>
       </c>
-      <c r="J142" s="39">
+      <c r="J142" s="38">
         <v>0</v>
       </c>
-      <c r="K142" s="36">
+      <c r="K142" s="35">
         <v>72.58</v>
       </c>
-      <c r="L142" s="36">
+      <c r="L142" s="35">
         <v>1</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N142" s="39">
+      <c r="N142" s="38">
         <v>0</v>
       </c>
-      <c r="P142" s="37">
+      <c r="P142" s="36">
         <v>1</v>
       </c>
       <c r="Q142" s="4" t="s">
@@ -9777,7 +9777,7 @@
       <c r="C143" s="11">
         <v>2017</v>
       </c>
-      <c r="D143" s="38" t="s">
+      <c r="D143" s="37" t="s">
         <v>108</v>
       </c>
       <c r="E143" s="11" t="s">
@@ -9795,22 +9795,22 @@
       <c r="I143" s="16">
         <v>1</v>
       </c>
-      <c r="J143" s="39">
+      <c r="J143" s="38">
         <v>10000</v>
       </c>
-      <c r="K143" s="36">
+      <c r="K143" s="35">
         <v>34.650455927051674</v>
       </c>
-      <c r="L143" s="36">
+      <c r="L143" s="35">
         <v>1</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N143" s="39">
+      <c r="N143" s="38">
         <v>10000</v>
       </c>
-      <c r="P143" s="37">
+      <c r="P143" s="36">
         <v>1</v>
       </c>
       <c r="Q143" s="4" t="s">
@@ -9855,22 +9855,22 @@
       <c r="I144" s="16">
         <v>1</v>
       </c>
-      <c r="J144" s="39">
+      <c r="J144" s="38">
         <v>200</v>
       </c>
-      <c r="K144" s="36">
+      <c r="K144" s="35">
         <v>282.13932584269662</v>
       </c>
-      <c r="L144" s="36">
+      <c r="L144" s="35">
         <v>1</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N144" s="39">
+      <c r="N144" s="38">
         <v>200</v>
       </c>
-      <c r="P144" s="37">
+      <c r="P144" s="36">
         <v>1</v>
       </c>
       <c r="Q144" s="4" t="s">
@@ -9897,7 +9897,7 @@
       <c r="C145" s="11">
         <v>2017</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D145" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E145" s="11" t="s">
@@ -9915,22 +9915,22 @@
       <c r="I145" s="16">
         <v>1</v>
       </c>
-      <c r="J145" s="39">
+      <c r="J145" s="38">
         <v>70</v>
       </c>
-      <c r="K145" s="36">
+      <c r="K145" s="35">
         <v>76</v>
       </c>
-      <c r="L145" s="36">
+      <c r="L145" s="35">
         <v>1</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N145" s="39">
+      <c r="N145" s="38">
         <v>70</v>
       </c>
-      <c r="P145" s="37">
+      <c r="P145" s="36">
         <v>1</v>
       </c>
       <c r="Q145" s="4" t="s">
@@ -9957,7 +9957,7 @@
       <c r="C146" s="11">
         <v>2017</v>
       </c>
-      <c r="D146" s="22" t="s">
+      <c r="D146" s="21" t="s">
         <v>111</v>
       </c>
       <c r="E146" s="11" t="s">
@@ -9975,22 +9975,22 @@
       <c r="I146" s="16">
         <v>1</v>
       </c>
-      <c r="J146" s="39">
+      <c r="J146" s="38">
         <v>3000</v>
       </c>
-      <c r="K146" s="36">
+      <c r="K146" s="35">
         <v>57</v>
       </c>
-      <c r="L146" s="36">
+      <c r="L146" s="35">
         <v>1</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N146" s="39">
+      <c r="N146" s="38">
         <v>3000</v>
       </c>
-      <c r="P146" s="37">
+      <c r="P146" s="36">
         <v>1</v>
       </c>
       <c r="Q146" s="4" t="s">
@@ -10017,7 +10017,7 @@
       <c r="C147" s="11">
         <v>2017</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="21" t="s">
         <v>112</v>
       </c>
       <c r="E147" s="11" t="s">
@@ -10035,22 +10035,22 @@
       <c r="I147" s="16">
         <v>1</v>
       </c>
-      <c r="J147" s="39">
+      <c r="J147" s="38">
         <v>0</v>
       </c>
-      <c r="K147" s="36">
-        <v>1</v>
-      </c>
-      <c r="L147" s="36">
+      <c r="K147" s="35">
+        <v>1</v>
+      </c>
+      <c r="L147" s="35">
         <v>1</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N147" s="39">
+      <c r="N147" s="38">
         <v>0</v>
       </c>
-      <c r="P147" s="37">
+      <c r="P147" s="36">
         <v>1</v>
       </c>
       <c r="Q147" s="4" t="s">
@@ -10077,7 +10077,7 @@
       <c r="C148" s="11">
         <v>2017</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="21" t="s">
         <v>113</v>
       </c>
       <c r="E148" s="11" t="s">
@@ -10095,22 +10095,22 @@
       <c r="I148" s="16">
         <v>1</v>
       </c>
-      <c r="J148" s="39">
+      <c r="J148" s="38">
         <v>3000</v>
       </c>
-      <c r="K148" s="36">
+      <c r="K148" s="35">
         <v>104.88</v>
       </c>
-      <c r="L148" s="36">
+      <c r="L148" s="35">
         <v>1</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N148" s="39">
+      <c r="N148" s="38">
         <v>3000</v>
       </c>
-      <c r="P148" s="37">
+      <c r="P148" s="36">
         <v>1</v>
       </c>
       <c r="Q148" s="4" t="s">
@@ -10155,22 +10155,22 @@
       <c r="I149" s="16">
         <v>1</v>
       </c>
-      <c r="J149" s="39">
+      <c r="J149" s="38">
         <v>50</v>
       </c>
-      <c r="K149" s="36">
+      <c r="K149" s="35">
         <v>1707.8651685393261</v>
       </c>
-      <c r="L149" s="36">
+      <c r="L149" s="35">
         <v>1</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N149" s="39">
+      <c r="N149" s="38">
         <v>50</v>
       </c>
-      <c r="P149" s="37">
+      <c r="P149" s="36">
         <v>1</v>
       </c>
       <c r="Q149" s="4" t="s">
@@ -10215,22 +10215,22 @@
       <c r="I150" s="16">
         <v>1</v>
       </c>
-      <c r="J150" s="39">
-        <v>1</v>
-      </c>
-      <c r="K150" s="36">
+      <c r="J150" s="38">
+        <v>1</v>
+      </c>
+      <c r="K150" s="35">
         <v>15200</v>
       </c>
-      <c r="L150" s="36">
+      <c r="L150" s="35">
         <v>1</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N150" s="39">
-        <v>1</v>
-      </c>
-      <c r="P150" s="37">
+      <c r="N150" s="38">
+        <v>1</v>
+      </c>
+      <c r="P150" s="36">
         <v>1</v>
       </c>
       <c r="Q150" s="4" t="s">
@@ -10275,22 +10275,22 @@
       <c r="I151" s="16">
         <v>1</v>
       </c>
-      <c r="J151" s="39">
+      <c r="J151" s="38">
         <v>20000</v>
       </c>
-      <c r="K151" s="36">
+      <c r="K151" s="35">
         <v>0.56788247213779131</v>
       </c>
-      <c r="L151" s="36">
+      <c r="L151" s="35">
         <v>1</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N151" s="39">
+      <c r="N151" s="38">
         <v>20000</v>
       </c>
-      <c r="P151" s="37">
+      <c r="P151" s="36">
         <v>1</v>
       </c>
       <c r="Q151" s="4" t="s">
@@ -10335,22 +10335,22 @@
       <c r="I152" s="16">
         <v>1</v>
       </c>
-      <c r="J152" s="39">
+      <c r="J152" s="38">
         <v>500</v>
       </c>
-      <c r="K152" s="36">
+      <c r="K152" s="35">
         <v>5.7750759878419453</v>
       </c>
-      <c r="L152" s="36">
+      <c r="L152" s="35">
         <v>1</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N152" s="39">
+      <c r="N152" s="38">
         <v>500</v>
       </c>
-      <c r="P152" s="37">
+      <c r="P152" s="36">
         <v>1</v>
       </c>
       <c r="Q152" s="4" t="s">
@@ -10395,22 +10395,22 @@
       <c r="I153" s="16">
         <v>1</v>
       </c>
-      <c r="J153" s="39">
+      <c r="J153" s="38">
         <v>100</v>
       </c>
-      <c r="K153" s="36">
+      <c r="K153" s="35">
         <v>17.325227963525837</v>
       </c>
-      <c r="L153" s="36">
+      <c r="L153" s="35">
         <v>1</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N153" s="39">
+      <c r="N153" s="38">
         <v>100</v>
       </c>
-      <c r="P153" s="37">
+      <c r="P153" s="36">
         <v>1</v>
       </c>
       <c r="Q153" s="4" t="s">
@@ -10437,7 +10437,7 @@
       <c r="C154" s="11">
         <v>2017</v>
       </c>
-      <c r="D154" s="38" t="s">
+      <c r="D154" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E154" s="11" t="s">
@@ -10455,22 +10455,22 @@
       <c r="I154" s="16">
         <v>1</v>
       </c>
-      <c r="J154" s="39">
+      <c r="J154" s="38">
         <v>50</v>
       </c>
-      <c r="K154" s="36">
+      <c r="K154" s="35">
         <v>28.875379939209729</v>
       </c>
-      <c r="L154" s="36">
+      <c r="L154" s="35">
         <v>1</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N154" s="39">
+      <c r="N154" s="38">
         <v>50</v>
       </c>
-      <c r="P154" s="37">
+      <c r="P154" s="36">
         <v>1</v>
       </c>
       <c r="Q154" s="4" t="s">
@@ -10515,22 +10515,22 @@
       <c r="I155" s="16">
         <v>1</v>
       </c>
-      <c r="J155" s="39">
+      <c r="J155" s="38">
         <v>50</v>
       </c>
-      <c r="K155" s="36">
+      <c r="K155" s="35">
         <v>115.50151975683892</v>
       </c>
-      <c r="L155" s="36">
+      <c r="L155" s="35">
         <v>1</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N155" s="39">
+      <c r="N155" s="38">
         <v>50</v>
       </c>
-      <c r="P155" s="37">
+      <c r="P155" s="36">
         <v>1</v>
       </c>
       <c r="Q155" s="4" t="s">
@@ -10557,7 +10557,7 @@
       <c r="C156" s="11">
         <v>2017</v>
       </c>
-      <c r="D156" s="22" t="s">
+      <c r="D156" s="21" t="s">
         <v>121</v>
       </c>
       <c r="E156" s="11" t="s">
@@ -10575,22 +10575,22 @@
       <c r="I156" s="16">
         <v>1</v>
       </c>
-      <c r="J156" s="39">
+      <c r="J156" s="38">
         <v>50</v>
       </c>
-      <c r="K156" s="36">
+      <c r="K156" s="35">
         <v>69.300911854103347</v>
       </c>
-      <c r="L156" s="36">
+      <c r="L156" s="35">
         <v>1</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N156" s="39">
+      <c r="N156" s="38">
         <v>50</v>
       </c>
-      <c r="P156" s="37">
+      <c r="P156" s="36">
         <v>1</v>
       </c>
       <c r="Q156" s="4" t="s">
@@ -10617,7 +10617,7 @@
       <c r="C157" s="11">
         <v>2017</v>
       </c>
-      <c r="D157" s="22" t="s">
+      <c r="D157" s="21" t="s">
         <v>122</v>
       </c>
       <c r="E157" s="11" t="s">
@@ -10635,22 +10635,22 @@
       <c r="I157" s="16">
         <v>1</v>
       </c>
-      <c r="J157" s="39">
+      <c r="J157" s="38">
         <v>15</v>
       </c>
-      <c r="K157" s="36">
+      <c r="K157" s="35">
         <v>462.00607902735567</v>
       </c>
-      <c r="L157" s="36">
+      <c r="L157" s="35">
         <v>1</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N157" s="39">
+      <c r="N157" s="38">
         <v>15</v>
       </c>
-      <c r="P157" s="37">
+      <c r="P157" s="36">
         <v>1</v>
       </c>
       <c r="Q157" s="4" t="s">
@@ -10677,7 +10677,7 @@
       <c r="C158" s="11">
         <v>2017</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E158" s="11" t="s">
@@ -10695,22 +10695,22 @@
       <c r="I158" s="16">
         <v>1</v>
       </c>
-      <c r="J158" s="39">
+      <c r="J158" s="38">
         <v>20</v>
       </c>
-      <c r="K158" s="36">
+      <c r="K158" s="35">
         <v>11.550151975683891</v>
       </c>
-      <c r="L158" s="36">
+      <c r="L158" s="35">
         <v>1</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N158" s="39">
+      <c r="N158" s="38">
         <v>20</v>
       </c>
-      <c r="P158" s="37">
+      <c r="P158" s="36">
         <v>1</v>
       </c>
       <c r="Q158" s="4" t="s">
@@ -10737,7 +10737,7 @@
       <c r="C159" s="11">
         <v>2017</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="21" t="s">
         <v>124</v>
       </c>
       <c r="E159" s="11" t="s">
@@ -10755,22 +10755,22 @@
       <c r="I159" s="16">
         <v>1</v>
       </c>
-      <c r="J159" s="39">
+      <c r="J159" s="38">
         <v>60</v>
       </c>
-      <c r="K159" s="36">
+      <c r="K159" s="35">
         <v>57.750759878419458</v>
       </c>
-      <c r="L159" s="36">
+      <c r="L159" s="35">
         <v>1</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N159" s="39">
+      <c r="N159" s="38">
         <v>60</v>
       </c>
-      <c r="P159" s="37">
+      <c r="P159" s="36">
         <v>1</v>
       </c>
       <c r="Q159" s="4" t="s">
@@ -10815,22 +10815,22 @@
       <c r="I160" s="16">
         <v>1</v>
       </c>
-      <c r="J160" s="39">
+      <c r="J160" s="38">
         <v>0</v>
       </c>
-      <c r="K160" s="36">
-        <v>1</v>
-      </c>
-      <c r="L160" s="36">
+      <c r="K160" s="35">
+        <v>1</v>
+      </c>
+      <c r="L160" s="35">
         <v>1</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N160" s="39">
+      <c r="N160" s="38">
         <v>0</v>
       </c>
-      <c r="P160" s="37">
+      <c r="P160" s="36">
         <v>1</v>
       </c>
       <c r="Q160" s="4" t="s">
@@ -10875,22 +10875,22 @@
       <c r="I161" s="16">
         <v>1</v>
       </c>
-      <c r="J161" s="39">
+      <c r="J161" s="38">
         <v>8</v>
       </c>
-      <c r="K161" s="36">
-        <v>1</v>
-      </c>
-      <c r="L161" s="36">
+      <c r="K161" s="35">
+        <v>1</v>
+      </c>
+      <c r="L161" s="35">
         <v>1</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N161" s="39">
+      <c r="N161" s="38">
         <v>8</v>
       </c>
-      <c r="P161" s="37">
+      <c r="P161" s="36">
         <v>1</v>
       </c>
       <c r="Q161" s="4" t="s">
@@ -10935,22 +10935,22 @@
       <c r="I162" s="16">
         <v>1</v>
       </c>
-      <c r="J162" s="39">
+      <c r="J162" s="38">
         <v>150</v>
       </c>
-      <c r="K162" s="36">
+      <c r="K162" s="35">
         <v>106.838905775076</v>
       </c>
-      <c r="L162" s="36">
+      <c r="L162" s="35">
         <v>1</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N162" s="39">
+      <c r="N162" s="38">
         <v>150</v>
       </c>
-      <c r="P162" s="37">
+      <c r="P162" s="36">
         <v>1</v>
       </c>
       <c r="Q162" s="4" t="s">
@@ -10995,22 +10995,22 @@
       <c r="I163" s="16">
         <v>1</v>
       </c>
-      <c r="J163" s="39">
+      <c r="J163" s="38">
         <v>70</v>
       </c>
-      <c r="K163" s="36">
+      <c r="K163" s="35">
         <v>49.088145896656535</v>
       </c>
-      <c r="L163" s="36">
+      <c r="L163" s="35">
         <v>1</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N163" s="39">
+      <c r="N163" s="38">
         <v>70</v>
       </c>
-      <c r="P163" s="37">
+      <c r="P163" s="36">
         <v>1</v>
       </c>
       <c r="Q163" s="4" t="s">
@@ -11055,22 +11055,22 @@
       <c r="I164" s="16">
         <v>1</v>
       </c>
-      <c r="J164" s="39">
+      <c r="J164" s="38">
         <v>60</v>
       </c>
-      <c r="K164" s="36">
+      <c r="K164" s="35">
         <v>548.63221884498489</v>
       </c>
-      <c r="L164" s="36">
+      <c r="L164" s="35">
         <v>1</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N164" s="39">
+      <c r="N164" s="38">
         <v>60</v>
       </c>
-      <c r="P164" s="37">
+      <c r="P164" s="36">
         <v>1</v>
       </c>
       <c r="Q164" s="4" t="s">
@@ -11097,7 +11097,7 @@
       <c r="C165" s="11">
         <v>2017</v>
       </c>
-      <c r="D165" s="38" t="s">
+      <c r="D165" s="37" t="s">
         <v>130</v>
       </c>
       <c r="E165" s="11" t="s">
@@ -11115,22 +11115,22 @@
       <c r="I165" s="16">
         <v>1</v>
       </c>
-      <c r="J165" s="39">
+      <c r="J165" s="38">
         <v>0</v>
       </c>
-      <c r="K165" s="36">
+      <c r="K165" s="35">
         <v>163.43465045592706</v>
       </c>
-      <c r="L165" s="36">
+      <c r="L165" s="35">
         <v>1</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N165" s="39">
+      <c r="N165" s="38">
         <v>0</v>
       </c>
-      <c r="P165" s="37">
+      <c r="P165" s="36">
         <v>1</v>
       </c>
       <c r="Q165" s="4" t="s">
@@ -11175,22 +11175,22 @@
       <c r="I166" s="16">
         <v>1</v>
       </c>
-      <c r="J166" s="39">
+      <c r="J166" s="38">
         <v>8</v>
       </c>
-      <c r="K166" s="36">
+      <c r="K166" s="35">
         <v>115.50151975683892</v>
       </c>
-      <c r="L166" s="36">
+      <c r="L166" s="35">
         <v>1</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N166" s="39">
+      <c r="N166" s="38">
         <v>8</v>
       </c>
-      <c r="P166" s="37">
+      <c r="P166" s="36">
         <v>1</v>
       </c>
       <c r="Q166" s="4" t="s">
@@ -11235,22 +11235,22 @@
       <c r="I167" s="16">
         <v>1</v>
       </c>
-      <c r="J167" s="39">
+      <c r="J167" s="38">
         <v>3200</v>
       </c>
-      <c r="K167" s="36">
+      <c r="K167" s="35">
         <v>18.239999999999998</v>
       </c>
-      <c r="L167" s="36">
+      <c r="L167" s="35">
         <v>1</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N167" s="39">
+      <c r="N167" s="38">
         <v>3200</v>
       </c>
-      <c r="P167" s="37">
+      <c r="P167" s="36">
         <v>1</v>
       </c>
       <c r="Q167" s="4" t="s">
@@ -11277,7 +11277,7 @@
       <c r="C168" s="11">
         <v>2015</v>
       </c>
-      <c r="D168" s="38" t="s">
+      <c r="D168" s="37" t="s">
         <v>143</v>
       </c>
       <c r="E168" s="9"/>
@@ -11293,22 +11293,22 @@
       <c r="I168" s="16">
         <v>1</v>
       </c>
-      <c r="J168" s="36">
+      <c r="J168" s="35">
         <v>8</v>
       </c>
-      <c r="K168" s="36">
+      <c r="K168" s="35">
         <v>70463</v>
       </c>
-      <c r="L168" s="36">
+      <c r="L168" s="35">
         <v>13</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N168" s="33">
-        <v>1</v>
-      </c>
-      <c r="P168" s="37">
+      <c r="N168" s="32">
+        <v>1</v>
+      </c>
+      <c r="P168" s="36">
         <v>0.2</v>
       </c>
       <c r="Q168" s="4" t="s">
@@ -11353,22 +11353,22 @@
       <c r="I169" s="16">
         <v>1</v>
       </c>
-      <c r="J169" s="36">
+      <c r="J169" s="35">
         <v>3200</v>
       </c>
-      <c r="K169" s="36">
+      <c r="K169" s="35">
         <v>5400</v>
       </c>
-      <c r="L169" s="36">
+      <c r="L169" s="35">
         <v>13</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N169" s="33">
-        <v>1</v>
-      </c>
-      <c r="P169" s="37">
+      <c r="N169" s="32">
+        <v>1</v>
+      </c>
+      <c r="P169" s="36">
         <v>0.8</v>
       </c>
       <c r="Q169" s="4" t="s">
@@ -11395,7 +11395,7 @@
       <c r="C170" s="11">
         <v>2015</v>
       </c>
-      <c r="D170" s="38" t="s">
+      <c r="D170" s="37" t="s">
         <v>145</v>
       </c>
       <c r="E170" s="9" t="s">
@@ -11413,22 +11413,22 @@
       <c r="I170" s="16">
         <v>0.2</v>
       </c>
-      <c r="J170" s="36">
+      <c r="J170" s="35">
         <v>19</v>
       </c>
-      <c r="K170" s="36">
+      <c r="K170" s="35">
         <v>10974</v>
       </c>
-      <c r="L170" s="36">
+      <c r="L170" s="35">
         <v>13</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N170" s="36">
+      <c r="N170" s="35">
         <v>19</v>
       </c>
-      <c r="P170" s="37">
+      <c r="P170" s="36">
         <v>1</v>
       </c>
       <c r="Q170" s="4" t="s">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>3</v>
       </c>
@@ -11473,22 +11473,22 @@
       <c r="I171" s="16">
         <v>0.8</v>
       </c>
-      <c r="J171" s="36">
+      <c r="J171" s="35">
         <v>9</v>
       </c>
-      <c r="K171" s="36">
+      <c r="K171" s="35">
         <v>2500</v>
       </c>
-      <c r="L171" s="36">
+      <c r="L171" s="35">
         <v>13</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N171" s="36">
+      <c r="N171" s="35">
         <v>9</v>
       </c>
-      <c r="P171" s="37">
+      <c r="P171" s="36">
         <v>1</v>
       </c>
       <c r="Q171" s="4" t="s">
@@ -11515,7 +11515,7 @@
       <c r="C172" s="11">
         <v>2015</v>
       </c>
-      <c r="D172" s="38" t="s">
+      <c r="D172" s="37" t="s">
         <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -11533,22 +11533,22 @@
       <c r="I172" s="16">
         <v>0.8</v>
       </c>
-      <c r="J172" s="36">
+      <c r="J172" s="35">
         <v>27</v>
       </c>
-      <c r="K172" s="36">
+      <c r="K172" s="35">
         <v>1500</v>
       </c>
-      <c r="L172" s="36">
+      <c r="L172" s="35">
         <v>13</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N172" s="36">
+      <c r="N172" s="35">
         <v>27</v>
       </c>
-      <c r="P172" s="37">
+      <c r="P172" s="36">
         <v>1</v>
       </c>
       <c r="Q172" s="4" t="s">
@@ -11593,19 +11593,19 @@
       <c r="I173" s="16">
         <v>1</v>
       </c>
-      <c r="J173" s="36">
-        <v>1</v>
-      </c>
-      <c r="K173" s="36">
+      <c r="J173" s="35">
+        <v>1</v>
+      </c>
+      <c r="K173" s="35">
         <v>63699</v>
       </c>
-      <c r="L173" s="36">
+      <c r="L173" s="35">
         <v>13</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N173" s="33"/>
+      <c r="N173" s="32"/>
       <c r="Q173" s="4" t="s">
         <v>180</v>
       </c>
@@ -11630,7 +11630,7 @@
       <c r="C174" s="11">
         <v>2015</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E174" s="11" t="s">
@@ -11648,19 +11648,19 @@
       <c r="I174" s="16">
         <v>1</v>
       </c>
-      <c r="J174" s="36">
+      <c r="J174" s="35">
         <v>0</v>
       </c>
-      <c r="K174" s="36">
+      <c r="K174" s="35">
         <v>200000</v>
       </c>
-      <c r="L174" s="36">
+      <c r="L174" s="35">
         <v>1</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N174" s="33"/>
+      <c r="N174" s="32"/>
       <c r="Q174" s="4" t="s">
         <v>180</v>
       </c>
@@ -11685,7 +11685,7 @@
       <c r="C175" s="11">
         <v>2015</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="21" t="s">
         <v>148</v>
       </c>
       <c r="E175" s="11" t="s">
@@ -11703,19 +11703,19 @@
       <c r="I175" s="16">
         <v>1</v>
       </c>
-      <c r="J175" s="36">
+      <c r="J175" s="35">
         <v>0</v>
       </c>
-      <c r="K175" s="36">
+      <c r="K175" s="35">
         <v>390000</v>
       </c>
-      <c r="L175" s="36">
+      <c r="L175" s="35">
         <v>1</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N175" s="33"/>
+      <c r="N175" s="32"/>
       <c r="Q175" s="4" t="s">
         <v>180</v>
       </c>
@@ -11740,7 +11740,7 @@
       <c r="C176" s="11">
         <v>2015</v>
       </c>
-      <c r="D176" s="22" t="s">
+      <c r="D176" s="21" t="s">
         <v>149</v>
       </c>
       <c r="E176" s="11" t="s">
@@ -11758,19 +11758,19 @@
       <c r="I176" s="16">
         <v>1</v>
       </c>
-      <c r="J176" s="36">
-        <v>1</v>
-      </c>
-      <c r="K176" s="36">
+      <c r="J176" s="35">
+        <v>1</v>
+      </c>
+      <c r="K176" s="35">
         <v>200000</v>
       </c>
-      <c r="L176" s="36">
+      <c r="L176" s="35">
         <v>1</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N176" s="33"/>
+      <c r="N176" s="32"/>
       <c r="Q176" s="4" t="s">
         <v>180</v>
       </c>
@@ -11813,19 +11813,19 @@
       <c r="I177" s="16">
         <v>1</v>
       </c>
-      <c r="J177" s="36">
-        <v>1</v>
-      </c>
-      <c r="K177" s="36">
+      <c r="J177" s="35">
+        <v>1</v>
+      </c>
+      <c r="K177" s="35">
         <v>197500</v>
       </c>
-      <c r="L177" s="36">
+      <c r="L177" s="35">
         <v>1</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N177" s="33"/>
+      <c r="N177" s="32"/>
       <c r="Q177" s="4" t="s">
         <v>180</v>
       </c>
@@ -11868,22 +11868,22 @@
       <c r="I178" s="16">
         <v>1</v>
       </c>
-      <c r="J178" s="36">
+      <c r="J178" s="35">
         <v>2</v>
       </c>
-      <c r="K178" s="36">
+      <c r="K178" s="35">
         <v>70000</v>
       </c>
-      <c r="L178" s="36">
+      <c r="L178" s="35">
         <v>1</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N178" s="36">
+      <c r="N178" s="35">
         <v>2</v>
       </c>
-      <c r="P178" s="37">
+      <c r="P178" s="36">
         <v>1</v>
       </c>
       <c r="Q178" s="4" t="s">
@@ -11928,22 +11928,22 @@
       <c r="I179" s="16">
         <v>1</v>
       </c>
-      <c r="J179" s="36">
+      <c r="J179" s="35">
         <v>2</v>
       </c>
-      <c r="K179" s="36">
+      <c r="K179" s="35">
         <v>70000</v>
       </c>
-      <c r="L179" s="36">
+      <c r="L179" s="35">
         <v>1</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N179" s="36">
+      <c r="N179" s="35">
         <v>2</v>
       </c>
-      <c r="P179" s="37">
+      <c r="P179" s="36">
         <v>1</v>
       </c>
       <c r="Q179" s="4" t="s">
@@ -11988,22 +11988,22 @@
       <c r="I180" s="16">
         <v>1</v>
       </c>
-      <c r="J180" s="36">
+      <c r="J180" s="35">
         <v>2</v>
       </c>
-      <c r="K180" s="36">
+      <c r="K180" s="35">
         <v>190000</v>
       </c>
-      <c r="L180" s="36">
+      <c r="L180" s="35">
         <v>1</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N180" s="36">
+      <c r="N180" s="35">
         <v>2</v>
       </c>
-      <c r="P180" s="37">
+      <c r="P180" s="36">
         <v>1</v>
       </c>
       <c r="Q180" s="4" t="s">
@@ -12048,22 +12048,22 @@
       <c r="I181" s="16">
         <v>1</v>
       </c>
-      <c r="J181" s="36">
+      <c r="J181" s="35">
         <v>2</v>
       </c>
-      <c r="K181" s="36">
+      <c r="K181" s="35">
         <v>7500</v>
       </c>
-      <c r="L181" s="36">
+      <c r="L181" s="35">
         <v>11</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N181" s="36">
+      <c r="N181" s="35">
         <v>2</v>
       </c>
-      <c r="P181" s="37">
+      <c r="P181" s="36">
         <v>1</v>
       </c>
       <c r="Q181" s="4" t="s">
@@ -12108,22 +12108,22 @@
       <c r="I182" s="16">
         <v>1</v>
       </c>
-      <c r="J182" s="36">
-        <v>1</v>
-      </c>
-      <c r="K182" s="36">
+      <c r="J182" s="35">
+        <v>1</v>
+      </c>
+      <c r="K182" s="35">
         <v>40500</v>
       </c>
-      <c r="L182" s="36">
+      <c r="L182" s="35">
         <v>4</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N182" s="36">
-        <v>1</v>
-      </c>
-      <c r="P182" s="37">
+      <c r="N182" s="35">
+        <v>1</v>
+      </c>
+      <c r="P182" s="36">
         <v>1</v>
       </c>
       <c r="Q182" s="4" t="s">
@@ -12168,22 +12168,22 @@
       <c r="I183" s="16">
         <v>1</v>
       </c>
-      <c r="J183" s="36">
-        <v>1</v>
-      </c>
-      <c r="K183" s="36">
+      <c r="J183" s="35">
+        <v>1</v>
+      </c>
+      <c r="K183" s="35">
         <v>40500</v>
       </c>
-      <c r="L183" s="36">
+      <c r="L183" s="35">
         <v>12</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N183" s="36">
-        <v>1</v>
-      </c>
-      <c r="P183" s="37">
+      <c r="N183" s="35">
+        <v>1</v>
+      </c>
+      <c r="P183" s="36">
         <v>1</v>
       </c>
       <c r="Q183" s="4" t="s">
@@ -12210,10 +12210,10 @@
       <c r="C184" s="11">
         <v>2015</v>
       </c>
-      <c r="D184" s="31" t="s">
+      <c r="D184" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E184" s="31" t="s">
+      <c r="E184" s="30" t="s">
         <v>264</v>
       </c>
       <c r="F184" s="11" t="s">
@@ -12228,22 +12228,22 @@
       <c r="I184" s="16">
         <v>1</v>
       </c>
-      <c r="J184" s="36">
+      <c r="J184" s="35">
         <v>500</v>
       </c>
-      <c r="K184" s="36">
+      <c r="K184" s="35">
         <v>5</v>
       </c>
-      <c r="L184" s="36">
+      <c r="L184" s="35">
         <v>12</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N184" s="36">
+      <c r="N184" s="35">
         <v>500</v>
       </c>
-      <c r="P184" s="37">
+      <c r="P184" s="36">
         <v>1</v>
       </c>
       <c r="Q184" s="4" t="s">
@@ -12270,10 +12270,10 @@
       <c r="C185" s="11">
         <v>2015</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E185" s="31" t="s">
+      <c r="E185" s="30" t="s">
         <v>264</v>
       </c>
       <c r="F185" s="11" t="s">
@@ -12288,22 +12288,22 @@
       <c r="I185" s="16">
         <v>1</v>
       </c>
-      <c r="J185" s="36">
+      <c r="J185" s="35">
         <v>150</v>
       </c>
-      <c r="K185" s="36">
+      <c r="K185" s="35">
         <v>5</v>
       </c>
-      <c r="L185" s="36">
+      <c r="L185" s="35">
         <v>12</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N185" s="36">
+      <c r="N185" s="35">
         <v>150</v>
       </c>
-      <c r="P185" s="37">
+      <c r="P185" s="36">
         <v>1</v>
       </c>
       <c r="Q185" s="4" t="s">
@@ -12330,10 +12330,10 @@
       <c r="C186" s="11">
         <v>2015</v>
       </c>
-      <c r="D186" s="31" t="s">
+      <c r="D186" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E186" s="31" t="s">
+      <c r="E186" s="30" t="s">
         <v>264</v>
       </c>
       <c r="F186" s="11" t="s">
@@ -12348,22 +12348,22 @@
       <c r="I186" s="16">
         <v>1</v>
       </c>
-      <c r="J186" s="36">
+      <c r="J186" s="35">
         <v>150</v>
       </c>
-      <c r="K186" s="36">
+      <c r="K186" s="35">
         <v>5</v>
       </c>
-      <c r="L186" s="36">
+      <c r="L186" s="35">
         <v>12</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N186" s="36">
+      <c r="N186" s="35">
         <v>150</v>
       </c>
-      <c r="P186" s="37">
+      <c r="P186" s="36">
         <v>1</v>
       </c>
       <c r="Q186" s="4" t="s">
@@ -12408,22 +12408,22 @@
       <c r="I187" s="16">
         <v>1</v>
       </c>
-      <c r="J187" s="36">
+      <c r="J187" s="35">
         <v>912</v>
       </c>
-      <c r="K187" s="36">
+      <c r="K187" s="35">
         <v>18.239999999999998</v>
       </c>
-      <c r="L187" s="36">
+      <c r="L187" s="35">
         <v>10</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N187" s="36">
+      <c r="N187" s="35">
         <v>10</v>
       </c>
-      <c r="P187" s="37">
+      <c r="P187" s="36">
         <v>1</v>
       </c>
       <c r="Q187" s="4" t="s">
@@ -12466,13 +12466,13 @@
       <c r="I188" s="16">
         <v>1</v>
       </c>
-      <c r="J188" s="36">
-        <v>1</v>
-      </c>
-      <c r="K188" s="36">
+      <c r="J188" s="35">
+        <v>1</v>
+      </c>
+      <c r="K188" s="35">
         <v>200000</v>
       </c>
-      <c r="L188" s="36">
+      <c r="L188" s="35">
         <v>1</v>
       </c>
       <c r="M188" s="1" t="s">
@@ -12518,22 +12518,22 @@
       <c r="I189" s="16">
         <v>1</v>
       </c>
-      <c r="J189" s="36">
-        <v>1</v>
-      </c>
-      <c r="K189" s="36">
+      <c r="J189" s="35">
+        <v>1</v>
+      </c>
+      <c r="K189" s="35">
         <v>2000</v>
       </c>
-      <c r="L189" s="36">
+      <c r="L189" s="35">
         <v>1</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N189" s="36">
-        <v>1</v>
-      </c>
-      <c r="P189" s="37">
+      <c r="N189" s="35">
+        <v>1</v>
+      </c>
+      <c r="P189" s="36">
         <v>1</v>
       </c>
       <c r="Q189" s="4" t="s">
@@ -12576,22 +12576,22 @@
       <c r="I190" s="16">
         <v>1</v>
       </c>
-      <c r="J190" s="36">
-        <v>1</v>
-      </c>
-      <c r="K190" s="36">
+      <c r="J190" s="35">
+        <v>1</v>
+      </c>
+      <c r="K190" s="35">
         <v>8000</v>
       </c>
-      <c r="L190" s="36">
+      <c r="L190" s="35">
         <v>1</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N190" s="36">
-        <v>1</v>
-      </c>
-      <c r="P190" s="37">
+      <c r="N190" s="35">
+        <v>1</v>
+      </c>
+      <c r="P190" s="36">
         <v>1</v>
       </c>
       <c r="Q190" s="4" t="s">
@@ -12634,22 +12634,22 @@
       <c r="I191" s="16">
         <v>1</v>
       </c>
-      <c r="J191" s="36">
+      <c r="J191" s="35">
         <v>0</v>
       </c>
-      <c r="K191" s="36">
-        <v>1</v>
-      </c>
-      <c r="L191" s="36">
+      <c r="K191" s="35">
+        <v>1</v>
+      </c>
+      <c r="L191" s="35">
         <v>1</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N191" s="36">
-        <v>1</v>
-      </c>
-      <c r="P191" s="37">
+      <c r="N191" s="35">
+        <v>1</v>
+      </c>
+      <c r="P191" s="36">
         <v>1</v>
       </c>
       <c r="Q191" s="4" t="s">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>3</v>
       </c>
@@ -12694,22 +12694,22 @@
       <c r="I192" s="16">
         <v>1</v>
       </c>
-      <c r="J192" s="36">
+      <c r="J192" s="35">
         <v>800</v>
       </c>
-      <c r="K192" s="36">
+      <c r="K192" s="35">
         <v>13.299999999999999</v>
       </c>
-      <c r="L192" s="36">
+      <c r="L192" s="35">
         <v>10</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N192" s="36">
-        <v>1</v>
-      </c>
-      <c r="P192" s="37">
+      <c r="N192" s="35">
+        <v>1</v>
+      </c>
+      <c r="P192" s="36">
         <v>1</v>
       </c>
       <c r="Q192" s="4" t="s">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>3</v>
       </c>
@@ -12754,13 +12754,13 @@
       <c r="I193" s="16">
         <v>1</v>
       </c>
-      <c r="J193" s="36">
+      <c r="J193" s="35">
         <v>28</v>
       </c>
-      <c r="K193" s="36">
+      <c r="K193" s="35">
         <v>8813.4536082474224</v>
       </c>
-      <c r="L193" s="36">
+      <c r="L193" s="35">
         <v>1</v>
       </c>
       <c r="M193" s="1" t="s">
@@ -12808,13 +12808,13 @@
       <c r="I194" s="16">
         <v>1</v>
       </c>
-      <c r="J194" s="36">
+      <c r="J194" s="35">
         <v>28</v>
       </c>
-      <c r="K194" s="36">
+      <c r="K194" s="35">
         <v>500</v>
       </c>
-      <c r="L194" s="36">
+      <c r="L194" s="35">
         <v>1</v>
       </c>
       <c r="M194" s="1" t="s">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>3</v>
       </c>
@@ -12862,13 +12862,13 @@
       <c r="I195" s="16">
         <v>1</v>
       </c>
-      <c r="J195" s="36">
+      <c r="J195" s="35">
         <v>28</v>
       </c>
-      <c r="K195" s="36">
+      <c r="K195" s="35">
         <v>200</v>
       </c>
-      <c r="L195" s="36">
+      <c r="L195" s="35">
         <v>12</v>
       </c>
       <c r="M195" s="1" t="s">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
         <v>3</v>
       </c>
@@ -12916,13 +12916,13 @@
       <c r="I196" s="16">
         <v>1</v>
       </c>
-      <c r="J196" s="36">
+      <c r="J196" s="35">
         <v>2</v>
       </c>
-      <c r="K196" s="36">
+      <c r="K196" s="35">
         <v>95000</v>
       </c>
-      <c r="L196" s="36">
+      <c r="L196" s="35">
         <v>1</v>
       </c>
       <c r="M196" s="1" t="s">
@@ -12970,13 +12970,13 @@
       <c r="I197" s="16">
         <v>1</v>
       </c>
-      <c r="J197" s="36">
+      <c r="J197" s="35">
         <v>200</v>
       </c>
-      <c r="K197" s="36">
+      <c r="K197" s="35">
         <v>489.82000000000005</v>
       </c>
-      <c r="L197" s="36">
+      <c r="L197" s="35">
         <v>1</v>
       </c>
       <c r="M197" s="1" t="s">
@@ -13024,22 +13024,22 @@
       <c r="I198" s="16">
         <v>1</v>
       </c>
-      <c r="J198" s="36">
+      <c r="J198" s="35">
         <v>27</v>
       </c>
-      <c r="K198" s="36">
+      <c r="K198" s="35">
         <v>150</v>
       </c>
-      <c r="L198" s="36">
+      <c r="L198" s="35">
         <v>12</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N198" s="36">
+      <c r="N198" s="35">
         <v>27</v>
       </c>
-      <c r="P198" s="37">
+      <c r="P198" s="36">
         <v>1</v>
       </c>
       <c r="Q198" s="4" t="s">
@@ -13084,22 +13084,22 @@
       <c r="I199" s="16">
         <v>1</v>
       </c>
-      <c r="J199" s="36">
+      <c r="J199" s="35">
         <v>27</v>
       </c>
-      <c r="K199" s="36">
+      <c r="K199" s="35">
         <v>2000</v>
       </c>
-      <c r="L199" s="36">
+      <c r="L199" s="35">
         <v>1</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N199" s="36">
+      <c r="N199" s="35">
         <v>27</v>
       </c>
-      <c r="P199" s="37">
+      <c r="P199" s="36">
         <v>1</v>
       </c>
       <c r="Q199" s="4" t="s">
@@ -13144,13 +13144,13 @@
       <c r="I200" s="16">
         <v>1</v>
       </c>
-      <c r="J200" s="36">
-        <v>1</v>
-      </c>
-      <c r="K200" s="36">
+      <c r="J200" s="35">
+        <v>1</v>
+      </c>
+      <c r="K200" s="35">
         <v>4000</v>
       </c>
-      <c r="L200" s="36">
+      <c r="L200" s="35">
         <v>1</v>
       </c>
       <c r="M200" s="1" t="s">
@@ -13198,13 +13198,13 @@
       <c r="I201" s="16">
         <v>1</v>
       </c>
-      <c r="J201" s="36">
-        <v>1</v>
-      </c>
-      <c r="K201" s="36">
+      <c r="J201" s="35">
+        <v>1</v>
+      </c>
+      <c r="K201" s="35">
         <v>4800</v>
       </c>
-      <c r="L201" s="36">
+      <c r="L201" s="35">
         <v>1</v>
       </c>
       <c r="M201" s="1" t="s">
@@ -13252,13 +13252,13 @@
       <c r="I202" s="16">
         <v>1</v>
       </c>
-      <c r="J202" s="36">
-        <v>1</v>
-      </c>
-      <c r="K202" s="36">
+      <c r="J202" s="35">
+        <v>1</v>
+      </c>
+      <c r="K202" s="35">
         <v>1500</v>
       </c>
-      <c r="L202" s="36">
+      <c r="L202" s="35">
         <v>1</v>
       </c>
       <c r="M202" s="1" t="s">
@@ -13306,13 +13306,13 @@
       <c r="I203" s="16">
         <v>1</v>
       </c>
-      <c r="J203" s="36">
-        <v>1</v>
-      </c>
-      <c r="K203" s="36">
+      <c r="J203" s="35">
+        <v>1</v>
+      </c>
+      <c r="K203" s="35">
         <v>5000</v>
       </c>
-      <c r="L203" s="36">
+      <c r="L203" s="35">
         <v>1</v>
       </c>
       <c r="M203" s="1" t="s">
@@ -13360,22 +13360,22 @@
       <c r="I204" s="16">
         <v>1</v>
       </c>
-      <c r="J204" s="36">
+      <c r="J204" s="35">
         <v>6000</v>
       </c>
-      <c r="K204" s="36">
+      <c r="K204" s="35">
         <v>5.6772</v>
       </c>
-      <c r="L204" s="36">
+      <c r="L204" s="35">
         <v>1</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N204" s="36">
+      <c r="N204" s="35">
         <v>6000</v>
       </c>
-      <c r="P204" s="37">
+      <c r="P204" s="36">
         <v>0.6</v>
       </c>
       <c r="Q204" s="4" t="s">
@@ -13396,13 +13396,13 @@
       <c r="A205" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B205" s="32" t="s">
+      <c r="B205" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C205" s="11">
         <v>2015</v>
       </c>
-      <c r="D205" s="32" t="s">
+      <c r="D205" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E205" s="11" t="s">
@@ -13420,22 +13420,22 @@
       <c r="I205" s="16">
         <v>1</v>
       </c>
-      <c r="J205" s="36">
+      <c r="J205" s="35">
         <v>6000</v>
       </c>
-      <c r="K205" s="36">
+      <c r="K205" s="35">
         <v>6.84</v>
       </c>
-      <c r="L205" s="36">
+      <c r="L205" s="35">
         <v>1</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N205" s="36">
+      <c r="N205" s="35">
         <v>6000</v>
       </c>
-      <c r="P205" s="37">
+      <c r="P205" s="36">
         <v>0.5</v>
       </c>
       <c r="Q205" s="4" t="s">
@@ -13456,13 +13456,13 @@
       <c r="A206" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B206" s="32" t="s">
+      <c r="B206" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C206" s="11">
         <v>2015</v>
       </c>
-      <c r="D206" s="32" t="s">
+      <c r="D206" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E206" s="11" t="s">
@@ -13480,22 +13480,22 @@
       <c r="I206" s="16">
         <v>1</v>
       </c>
-      <c r="J206" s="36">
+      <c r="J206" s="35">
         <v>6000</v>
       </c>
-      <c r="K206" s="36">
+      <c r="K206" s="35">
         <v>171</v>
       </c>
-      <c r="L206" s="36">
+      <c r="L206" s="35">
         <v>1</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N206" s="36">
+      <c r="N206" s="35">
         <v>6000</v>
       </c>
-      <c r="P206" s="37">
+      <c r="P206" s="36">
         <v>0.8</v>
       </c>
       <c r="Q206" s="4" t="s">
@@ -13516,13 +13516,13 @@
       <c r="A207" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B207" s="32" t="s">
+      <c r="B207" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C207" s="11">
         <v>2015</v>
       </c>
-      <c r="D207" s="32" t="s">
+      <c r="D207" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E207" s="11" t="s">
@@ -13540,22 +13540,22 @@
       <c r="I207" s="16">
         <v>1</v>
       </c>
-      <c r="J207" s="36">
+      <c r="J207" s="35">
         <v>6000</v>
       </c>
-      <c r="K207" s="36">
+      <c r="K207" s="35">
         <v>39.278700000000001</v>
       </c>
-      <c r="L207" s="36">
+      <c r="L207" s="35">
         <v>1</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N207" s="36">
+      <c r="N207" s="35">
         <v>6000</v>
       </c>
-      <c r="P207" s="37">
+      <c r="P207" s="36">
         <v>0.8</v>
       </c>
       <c r="Q207" s="4" t="s">
@@ -13576,13 +13576,13 @@
       <c r="A208" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="32" t="s">
+      <c r="B208" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="11">
         <v>2015</v>
       </c>
-      <c r="D208" s="32" t="s">
+      <c r="D208" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E208" s="11" t="s">
@@ -13600,22 +13600,22 @@
       <c r="I208" s="16">
         <v>1</v>
       </c>
-      <c r="J208" s="36">
+      <c r="J208" s="35">
         <v>16401</v>
       </c>
-      <c r="K208" s="36">
+      <c r="K208" s="35">
         <v>306.84401758395006</v>
       </c>
-      <c r="L208" s="36">
+      <c r="L208" s="35">
         <v>1</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N208" s="36">
+      <c r="N208" s="35">
         <v>16401</v>
       </c>
-      <c r="P208" s="37">
+      <c r="P208" s="36">
         <v>0.6</v>
       </c>
       <c r="Q208" s="4" t="s">
@@ -13636,13 +13636,13 @@
       <c r="A209" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B209" s="32" t="s">
+      <c r="B209" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C209" s="11">
         <v>2015</v>
       </c>
-      <c r="D209" s="32" t="s">
+      <c r="D209" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E209" s="11" t="s">
@@ -13660,22 +13660,22 @@
       <c r="I209" s="16">
         <v>1</v>
       </c>
-      <c r="J209" s="36">
+      <c r="J209" s="35">
         <v>16401</v>
       </c>
-      <c r="K209" s="36">
+      <c r="K209" s="35">
         <v>66.57100090942582</v>
       </c>
-      <c r="L209" s="36">
+      <c r="L209" s="35">
         <v>1</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N209" s="36">
+      <c r="N209" s="35">
         <v>16401</v>
       </c>
-      <c r="P209" s="37">
+      <c r="P209" s="36">
         <v>0.5</v>
       </c>
       <c r="Q209" s="4" t="s">
@@ -13696,13 +13696,13 @@
       <c r="A210" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B210" s="32" t="s">
+      <c r="B210" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C210" s="11">
         <v>2015</v>
       </c>
-      <c r="D210" s="32" t="s">
+      <c r="D210" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E210" s="11" t="s">
@@ -13720,22 +13720,22 @@
       <c r="I210" s="16">
         <v>1</v>
       </c>
-      <c r="J210" s="36">
+      <c r="J210" s="35">
         <v>16401</v>
       </c>
-      <c r="K210" s="36">
+      <c r="K210" s="35">
         <v>106.16641606360311</v>
       </c>
-      <c r="L210" s="36">
+      <c r="L210" s="35">
         <v>1</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N210" s="36">
+      <c r="N210" s="35">
         <v>16401</v>
       </c>
-      <c r="P210" s="37">
+      <c r="P210" s="36">
         <v>0.8</v>
       </c>
       <c r="Q210" s="4" t="s">
@@ -13756,13 +13756,13 @@
       <c r="A211" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B211" s="32" t="s">
+      <c r="B211" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C211" s="11">
         <v>2015</v>
       </c>
-      <c r="D211" s="32" t="s">
+      <c r="D211" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E211" s="11" t="s">
@@ -13780,22 +13780,22 @@
       <c r="I211" s="16">
         <v>1</v>
       </c>
-      <c r="J211" s="36">
+      <c r="J211" s="35">
         <v>16401</v>
       </c>
-      <c r="K211" s="36">
+      <c r="K211" s="35">
         <v>291.15023044798886</v>
       </c>
-      <c r="L211" s="36">
+      <c r="L211" s="35">
         <v>1</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N211" s="36">
+      <c r="N211" s="35">
         <v>16401</v>
       </c>
-      <c r="P211" s="37">
+      <c r="P211" s="36">
         <v>0.8</v>
       </c>
       <c r="Q211" s="4" t="s">
@@ -13816,13 +13816,13 @@
       <c r="A212" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B212" s="32" t="s">
+      <c r="B212" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C212" s="11">
         <v>2015</v>
       </c>
-      <c r="D212" s="32" t="s">
+      <c r="D212" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E212" s="11" t="s">
@@ -13840,22 +13840,22 @@
       <c r="I212" s="16">
         <v>1</v>
       </c>
-      <c r="J212" s="36">
+      <c r="J212" s="35">
         <v>16401</v>
       </c>
-      <c r="K212" s="36">
+      <c r="K212" s="35">
         <v>110.01385596271612</v>
       </c>
-      <c r="L212" s="36">
+      <c r="L212" s="35">
         <v>1</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N212" s="36">
+      <c r="N212" s="35">
         <v>16401</v>
       </c>
-      <c r="P212" s="37">
+      <c r="P212" s="36">
         <v>0.9</v>
       </c>
       <c r="Q212" s="4" t="s">
@@ -13876,13 +13876,13 @@
       <c r="A213" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B213" s="32" t="s">
+      <c r="B213" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C213" s="11">
         <v>2015</v>
       </c>
-      <c r="D213" s="32" t="s">
+      <c r="D213" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E213" s="11" t="s">
@@ -13900,22 +13900,22 @@
       <c r="I213" s="16">
         <v>1</v>
       </c>
-      <c r="J213" s="36">
+      <c r="J213" s="35">
         <v>16401</v>
       </c>
-      <c r="K213" s="36">
+      <c r="K213" s="35">
         <v>198.94286761971745</v>
       </c>
-      <c r="L213" s="36">
+      <c r="L213" s="35">
         <v>1</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N213" s="36">
+      <c r="N213" s="35">
         <v>16401</v>
       </c>
-      <c r="P213" s="37">
+      <c r="P213" s="36">
         <v>0.8</v>
       </c>
       <c r="Q213" s="4" t="s">
@@ -13936,13 +13936,13 @@
       <c r="A214" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C214" s="11">
         <v>2015</v>
       </c>
-      <c r="D214" s="32" t="s">
+      <c r="D214" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E214" s="11" t="s">
@@ -13960,22 +13960,22 @@
       <c r="I214" s="16">
         <v>1</v>
       </c>
-      <c r="J214" s="36">
-        <v>1</v>
-      </c>
-      <c r="K214" s="36">
+      <c r="J214" s="35">
+        <v>1</v>
+      </c>
+      <c r="K214" s="35">
         <v>929718.26</v>
       </c>
-      <c r="L214" s="36">
+      <c r="L214" s="35">
         <v>1</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N214" s="36">
-        <v>1</v>
-      </c>
-      <c r="P214" s="37">
+      <c r="N214" s="35">
+        <v>1</v>
+      </c>
+      <c r="P214" s="36">
         <v>0.7</v>
       </c>
       <c r="Q214" s="4" t="s">
@@ -13996,13 +13996,13 @@
       <c r="A215" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B215" s="32" t="s">
+      <c r="B215" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C215" s="11">
         <v>2015</v>
       </c>
-      <c r="D215" s="32" t="s">
+      <c r="D215" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E215" s="11" t="s">
@@ -14020,22 +14020,22 @@
       <c r="I215" s="16">
         <v>1</v>
       </c>
-      <c r="J215" s="36">
-        <v>1</v>
-      </c>
-      <c r="K215" s="36">
+      <c r="J215" s="35">
+        <v>1</v>
+      </c>
+      <c r="K215" s="35">
         <v>581127.73</v>
       </c>
-      <c r="L215" s="36">
+      <c r="L215" s="35">
         <v>1</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N215" s="36">
-        <v>1</v>
-      </c>
-      <c r="P215" s="37">
+      <c r="N215" s="35">
+        <v>1</v>
+      </c>
+      <c r="P215" s="36">
         <v>0.2</v>
       </c>
       <c r="Q215" s="4" t="s">
@@ -14056,13 +14056,13 @@
       <c r="A216" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C216" s="11">
         <v>2015</v>
       </c>
-      <c r="D216" s="32" t="s">
+      <c r="D216" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E216" s="11" t="s">
@@ -14080,22 +14080,22 @@
       <c r="I216" s="16">
         <v>1</v>
       </c>
-      <c r="J216" s="36">
-        <v>1</v>
-      </c>
-      <c r="K216" s="36">
+      <c r="J216" s="35">
+        <v>1</v>
+      </c>
+      <c r="K216" s="35">
         <v>1875098.5999999999</v>
       </c>
-      <c r="L216" s="36">
+      <c r="L216" s="35">
         <v>1</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N216" s="36">
-        <v>1</v>
-      </c>
-      <c r="P216" s="37">
+      <c r="N216" s="35">
+        <v>1</v>
+      </c>
+      <c r="P216" s="36">
         <v>0.7</v>
       </c>
       <c r="Q216" s="4" t="s">
@@ -14116,13 +14116,13 @@
       <c r="A217" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C217" s="11">
         <v>2015</v>
       </c>
-      <c r="D217" s="32" t="s">
+      <c r="D217" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E217" s="11" t="s">
@@ -14140,22 +14140,22 @@
       <c r="I217" s="16">
         <v>1</v>
       </c>
-      <c r="J217" s="36">
-        <v>1</v>
-      </c>
-      <c r="K217" s="36">
+      <c r="J217" s="35">
+        <v>1</v>
+      </c>
+      <c r="K217" s="35">
         <v>1593120.7399999998</v>
       </c>
-      <c r="L217" s="36">
+      <c r="L217" s="35">
         <v>1</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N217" s="36">
-        <v>1</v>
-      </c>
-      <c r="P217" s="37">
+      <c r="N217" s="35">
+        <v>1</v>
+      </c>
+      <c r="P217" s="36">
         <v>0.5</v>
       </c>
       <c r="Q217" s="4" t="s">
@@ -14176,13 +14176,13 @@
       <c r="A218" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B218" s="32" t="s">
+      <c r="B218" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C218" s="11">
         <v>2015</v>
       </c>
-      <c r="D218" s="32" t="s">
+      <c r="D218" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E218" s="11" t="s">
@@ -14200,22 +14200,22 @@
       <c r="I218" s="16">
         <v>1</v>
       </c>
-      <c r="J218" s="36">
-        <v>1</v>
-      </c>
-      <c r="K218" s="36">
+      <c r="J218" s="35">
+        <v>1</v>
+      </c>
+      <c r="K218" s="35">
         <v>581127.73</v>
       </c>
-      <c r="L218" s="36">
+      <c r="L218" s="35">
         <v>1</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N218" s="36">
-        <v>1</v>
-      </c>
-      <c r="P218" s="37">
+      <c r="N218" s="35">
+        <v>1</v>
+      </c>
+      <c r="P218" s="36">
         <v>0.8</v>
       </c>
       <c r="Q218" s="4" t="s">

--- a/public_data/costs.xlsx
+++ b/public_data/costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896"/>
+    <workbookView xWindow="-1032" yWindow="6396" windowWidth="14808" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1461,19 +1461,19 @@
   <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D154" sqref="D154"/>
+      <selection pane="bottomRight" activeCell="I215" sqref="I215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="4" customWidth="1"/>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="J168" s="35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K168" s="35">
         <v>70463</v>
@@ -11354,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="J169" s="35">
-        <v>3200</v>
+        <v>1</v>
       </c>
       <c r="K169" s="35">
         <v>5400</v>
